--- a/2v2statsXL.xlsx
+++ b/2v2statsXL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\pyrojects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993BF259-DC8D-441D-8D9B-18548E808ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3892AAF9-46C4-4E16-9853-EF83E354A81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>player</t>
   </si>
@@ -126,13 +126,19 @@
   </si>
   <si>
     <t>5th-6th</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Kyle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +166,14 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,12 +194,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBF4F14"/>
-        <bgColor rgb="FFBF4F14"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor rgb="FF00B050"/>
       </patternFill>
@@ -202,6 +208,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor rgb="FFBF4F14"/>
       </patternFill>
     </fill>
   </fills>
@@ -224,29 +248,88 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF1CEEE"/>
-          <bgColor rgb="FFF1CEEE"/>
+          <fgColor rgb="FFBE5014"/>
+          <bgColor rgb="FFBF4F14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBE5014"/>
+          <bgColor rgb="FFBF4F14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBE5014"/>
+          <bgColor rgb="FFBF4F14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBE5014"/>
+          <bgColor rgb="FFBF4F14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBE5014"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBE5014"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -255,120 +338,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFF1CEEE"/>
           <bgColor rgb="FFF1CEEE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBF4F14"/>
-          <bgColor rgb="FFBF4F14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBF4F14"/>
-          <bgColor rgb="FFBF4F14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF1CEEE"/>
-          <bgColor rgb="FFF1CEEE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF1CEEE"/>
-          <bgColor rgb="FFF1CEEE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0F9ED5"/>
-          <bgColor rgb="FF0F9ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0F9ED5"/>
-          <bgColor rgb="FF0F9ED5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -644,7 +613,7 @@
   <dimension ref="A1:Q1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -708,680 +677,798 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3">
-        <v>40</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="A2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="12">
         <v>18</v>
       </c>
-      <c r="D2" s="3">
-        <v>31</v>
-      </c>
-      <c r="E2" s="3">
-        <v>156</v>
-      </c>
-      <c r="F2" s="3">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3">
-        <v>4464</v>
-      </c>
-      <c r="H2" s="3">
-        <v>59</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="C2" s="12">
+        <v>12</v>
+      </c>
+      <c r="D2" s="12">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12">
+        <v>178</v>
+      </c>
+      <c r="F2" s="12">
+        <v>7</v>
+      </c>
+      <c r="G2" s="12">
+        <v>1807</v>
+      </c>
+      <c r="H2" s="12">
+        <v>25</v>
+      </c>
+      <c r="I2" s="13">
         <f>ROUND(IMDIV(B2,H2),2)</f>
-        <v>0.68</v>
-      </c>
-      <c r="J2" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="J2" s="13">
         <f>ROUND(IMDIV(D2,H2),2)</f>
-        <v>0.53</v>
-      </c>
-      <c r="K2" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="K2" s="13">
         <f>ROUND(IMDIV(E2,H2),2)</f>
-        <v>2.64</v>
-      </c>
-      <c r="L2" s="3">
+        <v>7.12</v>
+      </c>
+      <c r="L2" s="13">
         <f>ROUND(IMDIV(F2,H2),2)</f>
-        <v>0.22</v>
-      </c>
-      <c r="M2" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M2" s="13">
         <f>ROUND(IMDIV(B2,D2),2)</f>
-        <v>1.29</v>
-      </c>
-      <c r="N2" s="3">
+        <v>1.64</v>
+      </c>
+      <c r="N2" s="13">
         <f>ROUND(IMDIV(C2,B2),4)*100</f>
-        <v>45</v>
-      </c>
-      <c r="O2" s="3">
+        <v>66.67</v>
+      </c>
+      <c r="O2" s="13">
         <f>ROUND(IMDIV(G2,H2),2)</f>
-        <v>75.66</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+        <v>72.28</v>
+      </c>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="13">
+        <v>32</v>
+      </c>
+      <c r="C3" s="13">
+        <v>20</v>
+      </c>
+      <c r="D3" s="13">
+        <v>31</v>
+      </c>
+      <c r="E3" s="13">
+        <v>21</v>
+      </c>
+      <c r="F3" s="13">
         <v>18</v>
       </c>
-      <c r="B3" s="3">
-        <v>36</v>
-      </c>
-      <c r="C3" s="3">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3">
-        <v>34</v>
-      </c>
-      <c r="E3" s="3">
-        <v>61</v>
-      </c>
-      <c r="F3" s="3">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3">
-        <v>3789</v>
-      </c>
-      <c r="H3" s="3">
-        <v>59</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="G3" s="13">
+        <v>4110</v>
+      </c>
+      <c r="H3" s="13">
+        <v>50</v>
+      </c>
+      <c r="I3" s="13">
         <f>ROUND(IMDIV(B3,H3),2)</f>
-        <v>0.61</v>
-      </c>
-      <c r="J3" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="J3" s="13">
         <f>ROUND(IMDIV(D3,H3),2)</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="K3" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="K3" s="13">
         <f>ROUND(IMDIV(E3,H3),2)</f>
+        <v>0.42</v>
+      </c>
+      <c r="L3" s="13">
+        <f>ROUND(IMDIV(F3,H3),2)</f>
+        <v>0.36</v>
+      </c>
+      <c r="M3" s="13">
+        <f>ROUND(IMDIV(B3,D3),2)</f>
         <v>1.03</v>
       </c>
-      <c r="L3" s="3">
-        <f>ROUND(IMDIV(F3,H3),2)</f>
-        <v>0.25</v>
-      </c>
-      <c r="M3" s="3">
-        <f>ROUND(IMDIV(B3,D3),2)</f>
-        <v>1.06</v>
-      </c>
-      <c r="N3" s="3">
+      <c r="N3" s="13">
         <f>ROUND(IMDIV(C3,B3),4)*100</f>
-        <v>44.440000000000005</v>
-      </c>
-      <c r="O3" s="3">
+        <v>62.5</v>
+      </c>
+      <c r="O3" s="13">
         <f>ROUND(IMDIV(G3,H3),2)</f>
-        <v>64.22</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+        <v>82.2</v>
+      </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="4">
-        <v>35</v>
-      </c>
-      <c r="C4" s="4">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4">
-        <v>40</v>
-      </c>
-      <c r="E4" s="4">
-        <v>142</v>
-      </c>
-      <c r="F4" s="4">
-        <v>13</v>
-      </c>
-      <c r="G4" s="4">
-        <v>4567</v>
-      </c>
-      <c r="H4" s="4">
-        <v>56</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="A4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="13">
+        <v>14</v>
+      </c>
+      <c r="C4" s="13">
+        <v>8</v>
+      </c>
+      <c r="D4" s="13">
+        <v>19</v>
+      </c>
+      <c r="E4" s="13">
+        <v>32</v>
+      </c>
+      <c r="F4" s="13">
+        <v>5</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1501</v>
+      </c>
+      <c r="H4" s="13">
+        <v>25</v>
+      </c>
+      <c r="I4" s="13">
         <f>ROUND(IMDIV(B4,H4),2)</f>
-        <v>0.63</v>
-      </c>
-      <c r="J4" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J4" s="13">
         <f>ROUND(IMDIV(D4,H4),2)</f>
-        <v>0.71</v>
-      </c>
-      <c r="K4" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="K4" s="13">
         <f>ROUND(IMDIV(E4,H4),2)</f>
-        <v>2.54</v>
-      </c>
-      <c r="L4" s="4">
+        <v>1.28</v>
+      </c>
+      <c r="L4" s="13">
         <f>ROUND(IMDIV(F4,H4),2)</f>
-        <v>0.23</v>
-      </c>
-      <c r="M4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="M4" s="13">
         <f>ROUND(IMDIV(B4,D4),2)</f>
-        <v>0.88</v>
-      </c>
-      <c r="N4" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="N4" s="13">
         <f>ROUND(IMDIV(C4,B4),4)*100</f>
-        <v>48.57</v>
-      </c>
-      <c r="O4" s="4">
+        <v>57.14</v>
+      </c>
+      <c r="O4" s="13">
         <f>ROUND(IMDIV(G4,H4),2)</f>
-        <v>81.55</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="4"/>
+        <v>60.04</v>
+      </c>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="7">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2100</v>
+      </c>
+      <c r="H5" s="7">
         <v>27</v>
       </c>
-      <c r="C5" s="4">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4">
-        <v>39</v>
-      </c>
-      <c r="E5" s="4">
-        <v>33</v>
-      </c>
-      <c r="F5" s="4">
-        <v>20</v>
-      </c>
-      <c r="G5" s="4">
-        <v>3196</v>
-      </c>
-      <c r="H5" s="4">
-        <v>56</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="I5" s="6">
         <f>ROUND(IMDIV(B5,H5),2)</f>
+        <v>0.67</v>
+      </c>
+      <c r="J5" s="6">
+        <f>ROUND(IMDIV(D5,H5),2)</f>
+        <v>0.59</v>
+      </c>
+      <c r="K5" s="6">
+        <f>ROUND(IMDIV(E5,H5),2)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L5" s="6">
+        <f>ROUND(IMDIV(F5,H5),2)</f>
         <v>0.48</v>
       </c>
-      <c r="J5" s="4">
-        <f>ROUND(IMDIV(D5,H5),2)</f>
-        <v>0.7</v>
-      </c>
-      <c r="K5" s="4">
-        <f>ROUND(IMDIV(E5,H5),2)</f>
-        <v>0.59</v>
-      </c>
-      <c r="L5" s="4">
-        <f>ROUND(IMDIV(F5,H5),2)</f>
-        <v>0.36</v>
-      </c>
-      <c r="M5" s="4">
+      <c r="M5" s="6">
         <f>ROUND(IMDIV(B5,D5),2)</f>
-        <v>0.69</v>
-      </c>
-      <c r="N5" s="4">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N5" s="6">
         <f>ROUND(IMDIV(C5,B5),4)*100</f>
-        <v>62.960000000000008</v>
-      </c>
-      <c r="O5" s="4">
+        <v>61.11</v>
+      </c>
+      <c r="O5" s="6">
         <f>ROUND(IMDIV(G5,H5),2)</f>
-        <v>57.07</v>
-      </c>
-      <c r="P5" s="11" t="s">
+        <v>77.78</v>
+      </c>
+      <c r="P5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="4"/>
+      <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="A6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="7">
         <v>21</v>
       </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>8</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1658</v>
-      </c>
-      <c r="H6" s="5">
-        <v>25</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>38</v>
+      </c>
+      <c r="E6" s="7">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7">
+        <v>16</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2794</v>
+      </c>
+      <c r="H6" s="7">
+        <v>52</v>
+      </c>
+      <c r="I6" s="6">
         <f>ROUND(IMDIV(B6,H6),2)</f>
         <v>0.4</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="6">
         <f>ROUND(IMDIV(D6,H6),2)</f>
-        <v>0.84</v>
-      </c>
-      <c r="K6" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="K6" s="6">
         <f>ROUND(IMDIV(E6,H6),2)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="L6" s="6">
         <f>ROUND(IMDIV(F6,H6),2)</f>
-        <v>0.32</v>
-      </c>
-      <c r="M6" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="M6" s="6">
         <f>ROUND(IMDIV(B6,D6),2)</f>
-        <v>0.48</v>
-      </c>
-      <c r="N6" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N6" s="6">
         <f>ROUND(IMDIV(C6,B6),4)*100</f>
-        <v>60</v>
-      </c>
-      <c r="O6" s="5">
+        <v>23.810000000000002</v>
+      </c>
+      <c r="O6" s="6">
         <f>ROUND(IMDIV(G6,H6),2)</f>
-        <v>66.319999999999993</v>
-      </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+        <v>53.73</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5">
-        <v>32</v>
-      </c>
-      <c r="F7" s="5">
-        <v>5</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1501</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="A7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="9">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9">
+        <v>22</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>4</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1283</v>
+      </c>
+      <c r="H7" s="9">
         <v>25</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <f>ROUND(IMDIV(B7,H7),2)</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J7" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="J7" s="6">
         <f>ROUND(IMDIV(D7,H7),2)</f>
-        <v>0.76</v>
-      </c>
-      <c r="K7" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="K7" s="6">
         <f>ROUND(IMDIV(E7,H7),2)</f>
-        <v>1.28</v>
-      </c>
-      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
         <f>ROUND(IMDIV(F7,H7),2)</f>
-        <v>0.2</v>
-      </c>
-      <c r="M7" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="M7" s="6">
         <f>ROUND(IMDIV(B7,D7),2)</f>
-        <v>0.74</v>
-      </c>
-      <c r="N7" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="N7" s="6">
         <f>ROUND(IMDIV(C7,B7),4)*100</f>
-        <v>57.14</v>
-      </c>
-      <c r="O7" s="5">
+        <v>60</v>
+      </c>
+      <c r="O7" s="6">
         <f>ROUND(IMDIV(G7,H7),2)</f>
-        <v>60.04</v>
-      </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+        <v>51.32</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="6">
-        <v>24</v>
-      </c>
-      <c r="C8" s="6">
-        <v>14</v>
-      </c>
-      <c r="D8" s="6">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6">
-        <v>75</v>
-      </c>
-      <c r="F8" s="6">
-        <v>3</v>
-      </c>
-      <c r="G8" s="6">
-        <v>2471</v>
-      </c>
-      <c r="H8" s="6">
-        <v>24</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3">
+        <v>156</v>
+      </c>
+      <c r="F8" s="3">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4464</v>
+      </c>
+      <c r="H8" s="3">
+        <v>59</v>
+      </c>
+      <c r="I8" s="3">
         <f>ROUND(IMDIV(B8,H8),2)</f>
-        <v>1</v>
-      </c>
-      <c r="J8" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="J8" s="3">
         <f>ROUND(IMDIV(D8,H8),2)</f>
-        <v>0.38</v>
-      </c>
-      <c r="K8" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="K8" s="3">
         <f>ROUND(IMDIV(E8,H8),2)</f>
-        <v>3.13</v>
-      </c>
-      <c r="L8" s="6">
+        <v>2.64</v>
+      </c>
+      <c r="L8" s="3">
         <f>ROUND(IMDIV(F8,H8),2)</f>
-        <v>0.13</v>
-      </c>
-      <c r="M8" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="M8" s="3">
         <f>ROUND(IMDIV(B8,D8),2)</f>
-        <v>2.67</v>
-      </c>
-      <c r="N8" s="6">
+        <v>1.29</v>
+      </c>
+      <c r="N8" s="3">
         <f>ROUND(IMDIV(C8,B8),4)*100</f>
-        <v>58.330000000000005</v>
-      </c>
-      <c r="O8" s="6">
+        <v>45</v>
+      </c>
+      <c r="O8" s="3">
         <f>ROUND(IMDIV(G8,H8),2)</f>
-        <v>102.96</v>
-      </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+        <v>75.66</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3">
+        <v>61</v>
+      </c>
+      <c r="F9" s="3">
         <v>15</v>
       </c>
-      <c r="C9" s="6">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6">
-        <v>12</v>
-      </c>
-      <c r="E9" s="6">
-        <v>65</v>
-      </c>
-      <c r="F9" s="6">
-        <v>3</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1637</v>
-      </c>
-      <c r="H9" s="6">
-        <v>24</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="G9" s="3">
+        <v>3789</v>
+      </c>
+      <c r="H9" s="3">
+        <v>59</v>
+      </c>
+      <c r="I9" s="3">
         <f>ROUND(IMDIV(B9,H9),2)</f>
-        <v>0.63</v>
-      </c>
-      <c r="J9" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="J9" s="3">
         <f>ROUND(IMDIV(D9,H9),2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="K9" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K9" s="3">
         <f>ROUND(IMDIV(E9,H9),2)</f>
-        <v>2.71</v>
-      </c>
-      <c r="L9" s="6">
+        <v>1.03</v>
+      </c>
+      <c r="L9" s="3">
         <f>ROUND(IMDIV(F9,H9),2)</f>
-        <v>0.13</v>
-      </c>
-      <c r="M9" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="M9" s="3">
         <f>ROUND(IMDIV(B9,D9),2)</f>
-        <v>1.25</v>
-      </c>
-      <c r="N9" s="6">
+        <v>1.06</v>
+      </c>
+      <c r="N9" s="3">
         <f>ROUND(IMDIV(C9,B9),4)*100</f>
-        <v>53.33</v>
-      </c>
-      <c r="O9" s="6">
+        <v>44.440000000000005</v>
+      </c>
+      <c r="O9" s="3">
         <f>ROUND(IMDIV(G9,H9),2)</f>
-        <v>68.209999999999994</v>
-      </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
+        <v>64.22</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="8">
-        <v>26</v>
-      </c>
-      <c r="C10" s="8">
-        <v>15</v>
-      </c>
-      <c r="D10" s="8">
-        <v>14</v>
-      </c>
-      <c r="E10" s="8">
-        <v>147</v>
-      </c>
-      <c r="F10" s="8">
-        <v>3</v>
-      </c>
-      <c r="G10" s="8">
-        <v>3052</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4">
+        <v>142</v>
+      </c>
+      <c r="F10" s="4">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4567</v>
+      </c>
+      <c r="H10" s="4">
+        <v>56</v>
+      </c>
+      <c r="I10" s="4">
+        <f>ROUND(IMDIV(B10,H10),2)</f>
+        <v>0.63</v>
+      </c>
+      <c r="J10" s="4">
+        <f>ROUND(IMDIV(D10,H10),2)</f>
+        <v>0.71</v>
+      </c>
+      <c r="K10" s="4">
+        <f>ROUND(IMDIV(E10,H10),2)</f>
+        <v>2.54</v>
+      </c>
+      <c r="L10" s="4">
+        <f>ROUND(IMDIV(F10,H10),2)</f>
+        <v>0.23</v>
+      </c>
+      <c r="M10" s="4">
+        <f>ROUND(IMDIV(B10,D10),2)</f>
+        <v>0.88</v>
+      </c>
+      <c r="N10" s="4">
+        <f>ROUND(IMDIV(C10,B10),4)*100</f>
+        <v>48.57</v>
+      </c>
+      <c r="O10" s="4">
+        <f>ROUND(IMDIV(G10,H10),2)</f>
+        <v>81.55</v>
+      </c>
+      <c r="P10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="7">
-        <f>ROUND(IMDIV(B10,H10),2)</f>
-        <v>0.9</v>
-      </c>
-      <c r="J10" s="7">
-        <f>ROUND(IMDIV(D10,H10),2)</f>
-        <v>0.48</v>
-      </c>
-      <c r="K10" s="7">
-        <f>ROUND(IMDIV(E10,H10),2)</f>
-        <v>5.07</v>
-      </c>
-      <c r="L10" s="7">
-        <f>ROUND(IMDIV(F10,H10),2)</f>
-        <v>0.1</v>
-      </c>
-      <c r="M10" s="7">
-        <f>ROUND(IMDIV(B10,D10),2)</f>
-        <v>1.86</v>
-      </c>
-      <c r="N10" s="7">
-        <f>ROUND(IMDIV(C10,B10),4)*100</f>
-        <v>57.69</v>
-      </c>
-      <c r="O10" s="7">
-        <f>ROUND(IMDIV(G10,H10),2)</f>
-        <v>105.24</v>
-      </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="8">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8">
-        <v>5</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4">
         <v>17</v>
       </c>
-      <c r="E11" s="8">
-        <v>142</v>
-      </c>
-      <c r="F11" s="8">
-        <v>5</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1107</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="D11" s="4">
+        <v>39</v>
+      </c>
+      <c r="E11" s="4">
+        <v>33</v>
+      </c>
+      <c r="F11" s="4">
+        <v>20</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3196</v>
+      </c>
+      <c r="H11" s="4">
+        <v>56</v>
+      </c>
+      <c r="I11" s="4">
+        <f>ROUND(IMDIV(B11,H11),2)</f>
+        <v>0.48</v>
+      </c>
+      <c r="J11" s="4">
+        <f>ROUND(IMDIV(D11,H11),2)</f>
+        <v>0.7</v>
+      </c>
+      <c r="K11" s="4">
+        <f>ROUND(IMDIV(E11,H11),2)</f>
+        <v>0.59</v>
+      </c>
+      <c r="L11" s="4">
+        <f>ROUND(IMDIV(F11,H11),2)</f>
+        <v>0.36</v>
+      </c>
+      <c r="M11" s="4">
+        <f>ROUND(IMDIV(B11,D11),2)</f>
+        <v>0.69</v>
+      </c>
+      <c r="N11" s="4">
+        <f>ROUND(IMDIV(C11,B11),4)*100</f>
+        <v>62.960000000000008</v>
+      </c>
+      <c r="O11" s="4">
+        <f>ROUND(IMDIV(G11,H11),2)</f>
+        <v>57.07</v>
+      </c>
+      <c r="P11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="7">
-        <f>ROUND(IMDIV(B11,H11),2)</f>
-        <v>0.38</v>
-      </c>
-      <c r="J11" s="7">
-        <f>ROUND(IMDIV(D11,H11),2)</f>
-        <v>0.59</v>
-      </c>
-      <c r="K11" s="7">
-        <f>ROUND(IMDIV(E11,H11),2)</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L11" s="7">
-        <f>ROUND(IMDIV(F11,H11),2)</f>
-        <v>0.17</v>
-      </c>
-      <c r="M11" s="7">
-        <f>ROUND(IMDIV(B11,D11),2)</f>
-        <v>0.65</v>
-      </c>
-      <c r="N11" s="7">
-        <f>ROUND(IMDIV(C11,B11),4)*100</f>
-        <v>45.45</v>
-      </c>
-      <c r="O11" s="7">
-        <f>ROUND(IMDIV(G11,H11),2)</f>
-        <v>38.17</v>
-      </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+      <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="10">
-        <v>18</v>
-      </c>
-      <c r="C12" s="10">
-        <v>11</v>
-      </c>
-      <c r="D12" s="10">
-        <v>16</v>
-      </c>
-      <c r="E12" s="9">
-        <v>15</v>
-      </c>
-      <c r="F12" s="10">
-        <v>13</v>
-      </c>
-      <c r="G12" s="10">
-        <v>2100</v>
-      </c>
-      <c r="H12" s="10">
-        <v>27</v>
-      </c>
-      <c r="I12" s="9">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5">
+        <v>75</v>
+      </c>
+      <c r="F12" s="5">
+        <v>3</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2471</v>
+      </c>
+      <c r="H12" s="5">
+        <v>24</v>
+      </c>
+      <c r="I12" s="5">
         <f>ROUND(IMDIV(B12,H12),2)</f>
-        <v>0.67</v>
-      </c>
-      <c r="J12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
         <f>ROUND(IMDIV(D12,H12),2)</f>
-        <v>0.59</v>
-      </c>
-      <c r="K12" s="9">
+        <v>0.38</v>
+      </c>
+      <c r="K12" s="5">
         <f>ROUND(IMDIV(E12,H12),2)</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="L12" s="9">
+        <v>3.13</v>
+      </c>
+      <c r="L12" s="5">
         <f>ROUND(IMDIV(F12,H12),2)</f>
-        <v>0.48</v>
-      </c>
-      <c r="M12" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="M12" s="5">
         <f>ROUND(IMDIV(B12,D12),2)</f>
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="N12" s="9">
+        <v>2.67</v>
+      </c>
+      <c r="N12" s="5">
         <f>ROUND(IMDIV(C12,B12),4)*100</f>
-        <v>61.11</v>
-      </c>
-      <c r="O12" s="9">
+        <v>58.330000000000005</v>
+      </c>
+      <c r="O12" s="5">
         <f>ROUND(IMDIV(G12,H12),2)</f>
-        <v>77.78</v>
-      </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
+        <v>102.96</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="10">
-        <v>13</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>65</v>
+      </c>
+      <c r="F13" s="5">
         <v>3</v>
       </c>
-      <c r="D13" s="10">
-        <v>18</v>
-      </c>
-      <c r="E13" s="10">
-        <v>8</v>
-      </c>
-      <c r="F13" s="10">
-        <v>7</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1602</v>
-      </c>
-      <c r="H13" s="10">
-        <v>27</v>
-      </c>
-      <c r="I13" s="9">
+      <c r="G13" s="5">
+        <v>1637</v>
+      </c>
+      <c r="H13" s="5">
+        <v>24</v>
+      </c>
+      <c r="I13" s="5">
         <f>ROUND(IMDIV(B13,H13),2)</f>
+        <v>0.63</v>
+      </c>
+      <c r="J13" s="5">
+        <f>ROUND(IMDIV(D13,H13),2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="5">
+        <f>ROUND(IMDIV(E13,H13),2)</f>
+        <v>2.71</v>
+      </c>
+      <c r="L13" s="5">
+        <f>ROUND(IMDIV(F13,H13),2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="M13" s="5">
+        <f>ROUND(IMDIV(B13,D13),2)</f>
+        <v>1.25</v>
+      </c>
+      <c r="N13" s="5">
+        <f>ROUND(IMDIV(C13,B13),4)*100</f>
+        <v>53.33</v>
+      </c>
+      <c r="O13" s="5">
+        <f>ROUND(IMDIV(G13,H13),2)</f>
+        <v>68.209999999999994</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="11">
+        <v>26</v>
+      </c>
+      <c r="C14" s="11">
+        <v>15</v>
+      </c>
+      <c r="D14" s="11">
+        <v>14</v>
+      </c>
+      <c r="E14" s="11">
+        <v>147</v>
+      </c>
+      <c r="F14" s="11">
+        <v>3</v>
+      </c>
+      <c r="G14" s="11">
+        <v>3052</v>
+      </c>
+      <c r="H14" s="11">
+        <v>29</v>
+      </c>
+      <c r="I14" s="10">
+        <f>ROUND(IMDIV(B14,H14),2)</f>
+        <v>0.9</v>
+      </c>
+      <c r="J14" s="10">
+        <f>ROUND(IMDIV(D14,H14),2)</f>
         <v>0.48</v>
       </c>
-      <c r="J13" s="9">
-        <f>ROUND(IMDIV(D13,H13),2)</f>
-        <v>0.67</v>
-      </c>
-      <c r="K13" s="9">
-        <f>ROUND(IMDIV(E13,H13),2)</f>
-        <v>0.3</v>
-      </c>
-      <c r="L13" s="9">
-        <f>ROUND(IMDIV(F13,H13),2)</f>
-        <v>0.26</v>
-      </c>
-      <c r="M13" s="9">
-        <f>ROUND(IMDIV(B13,D13),2)</f>
-        <v>0.72</v>
-      </c>
-      <c r="N13" s="9">
-        <f>ROUND(IMDIV(C13,B13),4)*100</f>
-        <v>23.080000000000002</v>
-      </c>
-      <c r="O13" s="9">
-        <f>ROUND(IMDIV(G13,H13),2)</f>
-        <v>59.33</v>
-      </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
+      <c r="K14" s="10">
+        <f>ROUND(IMDIV(E14,H14),2)</f>
+        <v>5.07</v>
+      </c>
+      <c r="L14" s="10">
+        <f>ROUND(IMDIV(F14,H14),2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M14" s="10">
+        <f>ROUND(IMDIV(B14,D14),2)</f>
+        <v>1.86</v>
+      </c>
+      <c r="N14" s="10">
+        <f>ROUND(IMDIV(C14,B14),4)*100</f>
+        <v>57.69</v>
+      </c>
+      <c r="O14" s="10">
+        <f>ROUND(IMDIV(G14,H14),2)</f>
+        <v>105.24</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="11">
+        <v>11</v>
+      </c>
+      <c r="C15" s="11">
+        <v>5</v>
+      </c>
+      <c r="D15" s="11">
+        <v>17</v>
+      </c>
+      <c r="E15" s="11">
+        <v>142</v>
+      </c>
+      <c r="F15" s="11">
+        <v>5</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1107</v>
+      </c>
+      <c r="H15" s="11">
+        <v>29</v>
+      </c>
+      <c r="I15" s="10">
+        <f>ROUND(IMDIV(B15,H15),2)</f>
+        <v>0.38</v>
+      </c>
+      <c r="J15" s="10">
+        <f>ROUND(IMDIV(D15,H15),2)</f>
+        <v>0.59</v>
+      </c>
+      <c r="K15" s="10">
+        <f>ROUND(IMDIV(E15,H15),2)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L15" s="10">
+        <f>ROUND(IMDIV(F15,H15),2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="M15" s="10">
+        <f>ROUND(IMDIV(B15,D15),2)</f>
+        <v>0.65</v>
+      </c>
+      <c r="N15" s="10">
+        <f>ROUND(IMDIV(C15,B15),4)*100</f>
+        <v>45.45</v>
+      </c>
+      <c r="O15" s="10">
+        <f>ROUND(IMDIV(G15,H15),2)</f>
+        <v>38.17</v>
+      </c>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2364,8 +2451,8 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q13">
-    <sortCondition sortBy="cellColor" ref="F6:F13" dxfId="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q15">
+    <sortCondition sortBy="cellColor" ref="A4:A15" dxfId="1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/2v2statsXL.xlsx
+++ b/2v2statsXL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\pyrojects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\pyroject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3892AAF9-46C4-4E16-9853-EF83E354A81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391DC077-08BB-4FB6-B30C-5CE0575BC540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="0" windowWidth="18165" windowHeight="20790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>player</t>
   </si>
@@ -131,7 +131,19 @@
     <t>Steve</t>
   </si>
   <si>
-    <t>Kyle</t>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd-4th</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>MVP</t>
+  </si>
+  <si>
+    <t>EVP</t>
   </si>
 </sst>
 </file>
@@ -212,12 +224,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -226,6 +232,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor rgb="FFBF4F14"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -248,100 +260,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBE5014"/>
-          <bgColor rgb="FFBF4F14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBE5014"/>
-          <bgColor rgb="FFBF4F14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBE5014"/>
-          <bgColor rgb="FFBF4F14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBE5014"/>
-          <bgColor rgb="FFBF4F14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBE5014"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBE5014"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF1CEEE"/>
-          <bgColor rgb="FFF1CEEE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -360,7 +304,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="38100" cy="171450"/>
@@ -610,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1000"/>
+  <dimension ref="A1:Q999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -624,28 +568,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -669,807 +613,776 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>30</v>
+      <c r="A2" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="12">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="C2" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D2" s="12">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E2" s="12">
-        <v>178</v>
+        <v>367</v>
       </c>
       <c r="F2" s="12">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G2" s="12">
-        <v>1807</v>
+        <v>9620</v>
       </c>
       <c r="H2" s="12">
-        <v>25</v>
-      </c>
-      <c r="I2" s="13">
+        <v>92</v>
+      </c>
+      <c r="I2" s="11">
         <f>ROUND(IMDIV(B2,H2),2)</f>
-        <v>0.72</v>
-      </c>
-      <c r="J2" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="J2" s="11">
         <f>ROUND(IMDIV(D2,H2),2)</f>
-        <v>0.44</v>
-      </c>
-      <c r="K2" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="K2" s="11">
         <f>ROUND(IMDIV(E2,H2),2)</f>
-        <v>7.12</v>
-      </c>
-      <c r="L2" s="13">
+        <v>3.99</v>
+      </c>
+      <c r="L2" s="11">
         <f>ROUND(IMDIV(F2,H2),2)</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="M2" s="13">
+        <v>0.22</v>
+      </c>
+      <c r="M2" s="11">
         <f>ROUND(IMDIV(B2,D2),2)</f>
-        <v>1.64</v>
-      </c>
-      <c r="N2" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N2" s="11">
         <f>ROUND(IMDIV(C2,B2),4)*100</f>
-        <v>66.67</v>
-      </c>
-      <c r="O2" s="13">
+        <v>55.559999999999995</v>
+      </c>
+      <c r="O2" s="11">
         <f>ROUND(IMDIV(G2,H2),2)</f>
-        <v>72.28</v>
-      </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
+        <v>104.57</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="13">
-        <v>32</v>
-      </c>
-      <c r="C3" s="13">
-        <v>20</v>
-      </c>
-      <c r="D3" s="13">
-        <v>31</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="A3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="12">
+        <v>36</v>
+      </c>
+      <c r="C3" s="12">
+        <v>13</v>
+      </c>
+      <c r="D3" s="12">
+        <v>56</v>
+      </c>
+      <c r="E3" s="12">
+        <v>195</v>
+      </c>
+      <c r="F3" s="12">
         <v>21</v>
       </c>
-      <c r="F3" s="13">
-        <v>18</v>
-      </c>
-      <c r="G3" s="13">
-        <v>4110</v>
-      </c>
-      <c r="H3" s="13">
-        <v>50</v>
-      </c>
-      <c r="I3" s="13">
+      <c r="G3" s="12">
+        <v>4074</v>
+      </c>
+      <c r="H3" s="12">
+        <v>92</v>
+      </c>
+      <c r="I3" s="11">
         <f>ROUND(IMDIV(B3,H3),2)</f>
+        <v>0.39</v>
+      </c>
+      <c r="J3" s="11">
+        <f>ROUND(IMDIV(D3,H3),2)</f>
+        <v>0.61</v>
+      </c>
+      <c r="K3" s="11">
+        <f>ROUND(IMDIV(E3,H3),2)</f>
+        <v>2.12</v>
+      </c>
+      <c r="L3" s="11">
+        <f>ROUND(IMDIV(F3,H3),2)</f>
+        <v>0.23</v>
+      </c>
+      <c r="M3" s="11">
+        <f>ROUND(IMDIV(B3,D3),2)</f>
         <v>0.64</v>
       </c>
-      <c r="J3" s="13">
-        <f>ROUND(IMDIV(D3,H3),2)</f>
-        <v>0.62</v>
-      </c>
-      <c r="K3" s="13">
-        <f>ROUND(IMDIV(E3,H3),2)</f>
-        <v>0.42</v>
-      </c>
-      <c r="L3" s="13">
-        <f>ROUND(IMDIV(F3,H3),2)</f>
-        <v>0.36</v>
-      </c>
-      <c r="M3" s="13">
-        <f>ROUND(IMDIV(B3,D3),2)</f>
-        <v>1.03</v>
-      </c>
-      <c r="N3" s="13">
+      <c r="N3" s="11">
         <f>ROUND(IMDIV(C3,B3),4)*100</f>
-        <v>62.5</v>
-      </c>
-      <c r="O3" s="13">
+        <v>36.11</v>
+      </c>
+      <c r="O3" s="11">
         <f>ROUND(IMDIV(G3,H3),2)</f>
-        <v>82.2</v>
-      </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
+        <v>44.28</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="13">
-        <v>14</v>
-      </c>
-      <c r="C4" s="13">
-        <v>8</v>
-      </c>
-      <c r="D4" s="13">
-        <v>19</v>
-      </c>
-      <c r="E4" s="13">
-        <v>32</v>
-      </c>
-      <c r="F4" s="13">
-        <v>5</v>
-      </c>
-      <c r="G4" s="13">
-        <v>1501</v>
-      </c>
-      <c r="H4" s="13">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4">
         <v>25</v>
       </c>
-      <c r="I4" s="13">
+      <c r="D4" s="4">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4">
+        <v>169</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4">
+        <v>4363</v>
+      </c>
+      <c r="H4" s="4">
+        <v>51</v>
+      </c>
+      <c r="I4" s="4">
         <f>ROUND(IMDIV(B4,H4),2)</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J4" s="13">
+        <v>0.76</v>
+      </c>
+      <c r="J4" s="4">
         <f>ROUND(IMDIV(D4,H4),2)</f>
-        <v>0.76</v>
-      </c>
-      <c r="K4" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K4" s="4">
         <f>ROUND(IMDIV(E4,H4),2)</f>
-        <v>1.28</v>
-      </c>
-      <c r="L4" s="13">
+        <v>3.31</v>
+      </c>
+      <c r="L4" s="4">
         <f>ROUND(IMDIV(F4,H4),2)</f>
-        <v>0.2</v>
-      </c>
-      <c r="M4" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="M4" s="4">
         <f>ROUND(IMDIV(B4,D4),2)</f>
-        <v>0.74</v>
-      </c>
-      <c r="N4" s="13">
+        <v>1.39</v>
+      </c>
+      <c r="N4" s="4">
         <f>ROUND(IMDIV(C4,B4),4)*100</f>
-        <v>57.14</v>
-      </c>
-      <c r="O4" s="13">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="O4" s="4">
         <f>ROUND(IMDIV(G4,H4),2)</f>
-        <v>60.04</v>
-      </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
+        <v>85.55</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4">
         <v>26</v>
       </c>
-      <c r="B5" s="7">
-        <v>18</v>
-      </c>
-      <c r="C5" s="7">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6">
-        <v>15</v>
-      </c>
-      <c r="F5" s="7">
-        <v>13</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2100</v>
-      </c>
-      <c r="H5" s="7">
-        <v>27</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="C5" s="4">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4">
+        <v>73</v>
+      </c>
+      <c r="F5" s="4">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3035</v>
+      </c>
+      <c r="H5" s="4">
+        <v>51</v>
+      </c>
+      <c r="I5" s="4">
         <f>ROUND(IMDIV(B5,H5),2)</f>
-        <v>0.67</v>
-      </c>
-      <c r="J5" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="J5" s="4">
         <f>ROUND(IMDIV(D5,H5),2)</f>
-        <v>0.59</v>
-      </c>
-      <c r="K5" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="K5" s="4">
         <f>ROUND(IMDIV(E5,H5),2)</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="L5" s="6">
+        <v>1.43</v>
+      </c>
+      <c r="L5" s="4">
         <f>ROUND(IMDIV(F5,H5),2)</f>
-        <v>0.48</v>
-      </c>
-      <c r="M5" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M5" s="4">
         <f>ROUND(IMDIV(B5,D5),2)</f>
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="N5" s="6">
+        <v>0.79</v>
+      </c>
+      <c r="N5" s="4">
         <f>ROUND(IMDIV(C5,B5),4)*100</f>
-        <v>61.11</v>
-      </c>
-      <c r="O5" s="6">
+        <v>46.150000000000006</v>
+      </c>
+      <c r="O5" s="4">
         <f>ROUND(IMDIV(G5,H5),2)</f>
-        <v>77.78</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="6"/>
+        <v>59.51</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="7">
-        <v>21</v>
-      </c>
-      <c r="C6" s="7">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7">
-        <v>38</v>
-      </c>
-      <c r="E6" s="7">
-        <v>9</v>
-      </c>
-      <c r="F6" s="7">
-        <v>16</v>
-      </c>
-      <c r="G6" s="7">
-        <v>2794</v>
-      </c>
-      <c r="H6" s="7">
-        <v>52</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="A6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="8">
+        <v>28</v>
+      </c>
+      <c r="C6" s="8">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8">
+        <v>20</v>
+      </c>
+      <c r="E6" s="8">
+        <v>91</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2955</v>
+      </c>
+      <c r="H6" s="8">
+        <v>35</v>
+      </c>
+      <c r="I6" s="5">
         <f>ROUND(IMDIV(B6,H6),2)</f>
-        <v>0.4</v>
-      </c>
-      <c r="J6" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="J6" s="5">
         <f>ROUND(IMDIV(D6,H6),2)</f>
-        <v>0.73</v>
-      </c>
-      <c r="K6" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K6" s="5">
         <f>ROUND(IMDIV(E6,H6),2)</f>
-        <v>0.17</v>
-      </c>
-      <c r="L6" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="L6" s="5">
         <f>ROUND(IMDIV(F6,H6),2)</f>
-        <v>0.31</v>
-      </c>
-      <c r="M6" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="M6" s="5">
         <f>ROUND(IMDIV(B6,D6),2)</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N6" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="N6" s="5">
         <f>ROUND(IMDIV(C6,B6),4)*100</f>
-        <v>23.810000000000002</v>
-      </c>
-      <c r="O6" s="6">
+        <v>60.709999999999994</v>
+      </c>
+      <c r="O6" s="5">
         <f>ROUND(IMDIV(G6,H6),2)</f>
-        <v>53.73</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="6"/>
+        <v>84.43</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="8"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="9">
-        <v>10</v>
-      </c>
-      <c r="C7" s="9">
-        <v>6</v>
-      </c>
-      <c r="D7" s="9">
-        <v>22</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <v>4</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1283</v>
-      </c>
-      <c r="H7" s="9">
-        <v>25</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2">
+        <v>67</v>
+      </c>
+      <c r="C7" s="2">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2">
+        <v>199</v>
+      </c>
+      <c r="F7" s="2">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2">
+        <v>7644</v>
+      </c>
+      <c r="H7" s="2">
+        <v>95</v>
+      </c>
+      <c r="I7" s="2">
         <f>ROUND(IMDIV(B7,H7),2)</f>
-        <v>0.4</v>
-      </c>
-      <c r="J7" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="J7" s="2">
         <f>ROUND(IMDIV(D7,H7),2)</f>
-        <v>0.88</v>
-      </c>
-      <c r="K7" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="K7" s="2">
         <f>ROUND(IMDIV(E7,H7),2)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
+        <v>2.09</v>
+      </c>
+      <c r="L7" s="2">
         <f>ROUND(IMDIV(F7,H7),2)</f>
         <v>0.16</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="2">
         <f>ROUND(IMDIV(B7,D7),2)</f>
-        <v>0.45</v>
-      </c>
-      <c r="N7" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="N7" s="2">
         <f>ROUND(IMDIV(C7,B7),4)*100</f>
-        <v>60</v>
-      </c>
-      <c r="O7" s="6">
+        <v>43.28</v>
+      </c>
+      <c r="O7" s="2">
         <f>ROUND(IMDIV(G7,H7),2)</f>
-        <v>51.32</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="9"/>
+        <v>80.459999999999994</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3">
-        <v>40</v>
-      </c>
-      <c r="C8" s="3">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3">
-        <v>31</v>
-      </c>
-      <c r="E8" s="3">
-        <v>156</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="A8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="6">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6">
+        <v>33</v>
+      </c>
+      <c r="E8" s="6">
+        <v>92</v>
+      </c>
+      <c r="F8" s="6">
         <v>13</v>
       </c>
-      <c r="G8" s="3">
-        <v>4464</v>
-      </c>
-      <c r="H8" s="3">
-        <v>59</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="G8" s="6">
+        <v>4549</v>
+      </c>
+      <c r="H8" s="6">
+        <v>62</v>
+      </c>
+      <c r="I8" s="5">
         <f>ROUND(IMDIV(B8,H8),2)</f>
-        <v>0.68</v>
-      </c>
-      <c r="J8" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="J8" s="5">
         <f>ROUND(IMDIV(D8,H8),2)</f>
         <v>0.53</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="5">
         <f>ROUND(IMDIV(E8,H8),2)</f>
-        <v>2.64</v>
-      </c>
-      <c r="L8" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="L8" s="5">
         <f>ROUND(IMDIV(F8,H8),2)</f>
-        <v>0.22</v>
-      </c>
-      <c r="M8" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="M8" s="5">
         <f>ROUND(IMDIV(B8,D8),2)</f>
-        <v>1.29</v>
-      </c>
-      <c r="N8" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N8" s="5">
         <f>ROUND(IMDIV(C8,B8),4)*100</f>
-        <v>45</v>
-      </c>
-      <c r="O8" s="3">
+        <v>10.530000000000001</v>
+      </c>
+      <c r="O8" s="5">
         <f>ROUND(IMDIV(G8,H8),2)</f>
-        <v>75.66</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+        <v>73.37</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3">
-        <v>36</v>
-      </c>
-      <c r="C9" s="3">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="B9" s="2">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2">
         <v>61</v>
       </c>
-      <c r="F9" s="3">
-        <v>15</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3789</v>
-      </c>
-      <c r="H9" s="3">
-        <v>59</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="E9" s="2">
+        <v>138</v>
+      </c>
+      <c r="F9" s="2">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5454</v>
+      </c>
+      <c r="H9" s="2">
+        <v>95</v>
+      </c>
+      <c r="I9" s="2">
         <f>ROUND(IMDIV(B9,H9),2)</f>
-        <v>0.61</v>
-      </c>
-      <c r="J9" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="J9" s="2">
         <f>ROUND(IMDIV(D9,H9),2)</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="K9" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="K9" s="2">
         <f>ROUND(IMDIV(E9,H9),2)</f>
-        <v>1.03</v>
-      </c>
-      <c r="L9" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="L9" s="2">
         <f>ROUND(IMDIV(F9,H9),2)</f>
-        <v>0.25</v>
-      </c>
-      <c r="M9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M9" s="2">
         <f>ROUND(IMDIV(B9,D9),2)</f>
-        <v>1.06</v>
-      </c>
-      <c r="N9" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="N9" s="2">
         <f>ROUND(IMDIV(C9,B9),4)*100</f>
-        <v>44.440000000000005</v>
-      </c>
-      <c r="O9" s="3">
+        <v>50</v>
+      </c>
+      <c r="O9" s="2">
         <f>ROUND(IMDIV(G9,H9),2)</f>
-        <v>64.22</v>
-      </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+        <v>57.41</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="4">
-        <v>35</v>
-      </c>
-      <c r="C10" s="4">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4">
-        <v>40</v>
-      </c>
-      <c r="E10" s="4">
-        <v>142</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6">
+        <v>16</v>
+      </c>
+      <c r="E10" s="5">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6">
         <v>13</v>
       </c>
-      <c r="G10" s="4">
-        <v>4567</v>
-      </c>
-      <c r="H10" s="4">
-        <v>56</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="G10" s="6">
+        <v>2100</v>
+      </c>
+      <c r="H10" s="6">
+        <v>27</v>
+      </c>
+      <c r="I10" s="5">
         <f>ROUND(IMDIV(B10,H10),2)</f>
-        <v>0.63</v>
-      </c>
-      <c r="J10" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J10" s="5">
         <f>ROUND(IMDIV(D10,H10),2)</f>
-        <v>0.71</v>
-      </c>
-      <c r="K10" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="K10" s="5">
         <f>ROUND(IMDIV(E10,H10),2)</f>
-        <v>2.54</v>
-      </c>
-      <c r="L10" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L10" s="5">
         <f>ROUND(IMDIV(F10,H10),2)</f>
-        <v>0.23</v>
-      </c>
-      <c r="M10" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="M10" s="5">
         <f>ROUND(IMDIV(B10,D10),2)</f>
-        <v>0.88</v>
-      </c>
-      <c r="N10" s="4">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N10" s="5">
         <f>ROUND(IMDIV(C10,B10),4)*100</f>
-        <v>48.57</v>
-      </c>
-      <c r="O10" s="4">
+        <v>61.11</v>
+      </c>
+      <c r="O10" s="5">
         <f>ROUND(IMDIV(G10,H10),2)</f>
-        <v>81.55</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" s="4"/>
+        <v>77.78</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3">
         <v>17</v>
       </c>
-      <c r="D11" s="4">
-        <v>39</v>
-      </c>
-      <c r="E11" s="4">
-        <v>33</v>
-      </c>
-      <c r="F11" s="4">
-        <v>20</v>
-      </c>
-      <c r="G11" s="4">
-        <v>3196</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="D11" s="3">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3">
+        <v>142</v>
+      </c>
+      <c r="F11" s="3">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4567</v>
+      </c>
+      <c r="H11" s="3">
         <v>56</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <f>ROUND(IMDIV(B11,H11),2)</f>
-        <v>0.48</v>
-      </c>
-      <c r="J11" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="J11" s="3">
         <f>ROUND(IMDIV(D11,H11),2)</f>
-        <v>0.7</v>
-      </c>
-      <c r="K11" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="K11" s="3">
         <f>ROUND(IMDIV(E11,H11),2)</f>
-        <v>0.59</v>
-      </c>
-      <c r="L11" s="4">
+        <v>2.54</v>
+      </c>
+      <c r="L11" s="3">
         <f>ROUND(IMDIV(F11,H11),2)</f>
-        <v>0.36</v>
-      </c>
-      <c r="M11" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="M11" s="3">
         <f>ROUND(IMDIV(B11,D11),2)</f>
-        <v>0.69</v>
-      </c>
-      <c r="N11" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="N11" s="3">
         <f>ROUND(IMDIV(C11,B11),4)*100</f>
-        <v>62.960000000000008</v>
-      </c>
-      <c r="O11" s="4">
+        <v>48.57</v>
+      </c>
+      <c r="O11" s="3">
         <f>ROUND(IMDIV(G11,H11),2)</f>
-        <v>57.07</v>
-      </c>
-      <c r="P11" s="14" t="s">
+        <v>81.55</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Q11" s="4"/>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="5">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5">
-        <v>14</v>
-      </c>
-      <c r="D12" s="5">
-        <v>9</v>
-      </c>
-      <c r="E12" s="5">
-        <v>75</v>
-      </c>
-      <c r="F12" s="5">
-        <v>3</v>
-      </c>
-      <c r="G12" s="5">
-        <v>2471</v>
-      </c>
-      <c r="H12" s="5">
-        <v>24</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="A12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="9">
+        <v>25</v>
+      </c>
+      <c r="C12" s="9">
+        <v>15</v>
+      </c>
+      <c r="D12" s="9">
+        <v>47</v>
+      </c>
+      <c r="E12" s="9">
+        <v>58</v>
+      </c>
+      <c r="F12" s="9">
+        <v>11</v>
+      </c>
+      <c r="G12" s="9">
+        <v>3195</v>
+      </c>
+      <c r="H12" s="9">
+        <v>60</v>
+      </c>
+      <c r="I12" s="9">
         <f>ROUND(IMDIV(B12,H12),2)</f>
-        <v>1</v>
-      </c>
-      <c r="J12" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="J12" s="9">
         <f>ROUND(IMDIV(D12,H12),2)</f>
-        <v>0.38</v>
-      </c>
-      <c r="K12" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="K12" s="9">
         <f>ROUND(IMDIV(E12,H12),2)</f>
-        <v>3.13</v>
-      </c>
-      <c r="L12" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="L12" s="9">
         <f>ROUND(IMDIV(F12,H12),2)</f>
-        <v>0.13</v>
-      </c>
-      <c r="M12" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="M12" s="9">
         <f>ROUND(IMDIV(B12,D12),2)</f>
-        <v>2.67</v>
-      </c>
-      <c r="N12" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="N12" s="9">
         <f>ROUND(IMDIV(C12,B12),4)*100</f>
-        <v>58.330000000000005</v>
-      </c>
-      <c r="O12" s="5">
+        <v>60</v>
+      </c>
+      <c r="O12" s="9">
         <f>ROUND(IMDIV(G12,H12),2)</f>
-        <v>102.96</v>
-      </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
+        <v>53.25</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="5">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="15">
+        <v>34</v>
+      </c>
+      <c r="C13" s="15">
         <v>15</v>
       </c>
-      <c r="C13" s="5">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5">
-        <v>65</v>
-      </c>
-      <c r="F13" s="5">
-        <v>3</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1637</v>
-      </c>
-      <c r="H13" s="5">
-        <v>24</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="D13" s="15">
+        <v>47</v>
+      </c>
+      <c r="E13" s="15">
+        <v>46</v>
+      </c>
+      <c r="F13" s="15">
+        <v>18</v>
+      </c>
+      <c r="G13" s="15">
+        <v>4346</v>
+      </c>
+      <c r="H13" s="15">
+        <v>60</v>
+      </c>
+      <c r="I13" s="15">
         <f>ROUND(IMDIV(B13,H13),2)</f>
-        <v>0.63</v>
-      </c>
-      <c r="J13" s="5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J13" s="15">
         <f>ROUND(IMDIV(D13,H13),2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="K13" s="15">
         <f>ROUND(IMDIV(E13,H13),2)</f>
-        <v>2.71</v>
-      </c>
-      <c r="L13" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="L13" s="15">
         <f>ROUND(IMDIV(F13,H13),2)</f>
-        <v>0.13</v>
-      </c>
-      <c r="M13" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="M13" s="15">
         <f>ROUND(IMDIV(B13,D13),2)</f>
-        <v>1.25</v>
-      </c>
-      <c r="N13" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="N13" s="15">
         <f>ROUND(IMDIV(C13,B13),4)*100</f>
-        <v>53.33</v>
-      </c>
-      <c r="O13" s="5">
+        <v>44.12</v>
+      </c>
+      <c r="O13" s="15">
         <f>ROUND(IMDIV(G13,H13),2)</f>
-        <v>68.209999999999994</v>
-      </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+        <v>72.430000000000007</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="11">
-        <v>26</v>
-      </c>
-      <c r="C14" s="11">
-        <v>15</v>
-      </c>
-      <c r="D14" s="11">
-        <v>14</v>
-      </c>
-      <c r="E14" s="11">
-        <v>147</v>
-      </c>
-      <c r="F14" s="11">
-        <v>3</v>
-      </c>
-      <c r="G14" s="11">
-        <v>3052</v>
-      </c>
-      <c r="H14" s="11">
+      <c r="A14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="14">
+        <v>27</v>
+      </c>
+      <c r="C14" s="14">
+        <v>17</v>
+      </c>
+      <c r="D14" s="14">
+        <v>39</v>
+      </c>
+      <c r="E14" s="14">
+        <v>33</v>
+      </c>
+      <c r="F14" s="14">
+        <v>20</v>
+      </c>
+      <c r="G14" s="14">
+        <v>3196</v>
+      </c>
+      <c r="H14" s="14">
+        <v>56</v>
+      </c>
+      <c r="I14" s="14">
+        <f>ROUND(IMDIV(B14,H14),2)</f>
+        <v>0.48</v>
+      </c>
+      <c r="J14" s="14">
+        <f>ROUND(IMDIV(D14,H14),2)</f>
+        <v>0.7</v>
+      </c>
+      <c r="K14" s="14">
+        <f>ROUND(IMDIV(E14,H14),2)</f>
+        <v>0.59</v>
+      </c>
+      <c r="L14" s="14">
+        <f>ROUND(IMDIV(F14,H14),2)</f>
+        <v>0.36</v>
+      </c>
+      <c r="M14" s="14">
+        <f>ROUND(IMDIV(B14,D14),2)</f>
+        <v>0.69</v>
+      </c>
+      <c r="N14" s="14">
+        <f>ROUND(IMDIV(C14,B14),4)*100</f>
+        <v>62.960000000000008</v>
+      </c>
+      <c r="O14" s="14">
+        <f>ROUND(IMDIV(G14,H14),2)</f>
+        <v>57.07</v>
+      </c>
+      <c r="P14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="10">
-        <f>ROUND(IMDIV(B14,H14),2)</f>
-        <v>0.9</v>
-      </c>
-      <c r="J14" s="10">
-        <f>ROUND(IMDIV(D14,H14),2)</f>
-        <v>0.48</v>
-      </c>
-      <c r="K14" s="10">
-        <f>ROUND(IMDIV(E14,H14),2)</f>
-        <v>5.07</v>
-      </c>
-      <c r="L14" s="10">
-        <f>ROUND(IMDIV(F14,H14),2)</f>
-        <v>0.1</v>
-      </c>
-      <c r="M14" s="10">
-        <f>ROUND(IMDIV(B14,D14),2)</f>
-        <v>1.86</v>
-      </c>
-      <c r="N14" s="10">
-        <f>ROUND(IMDIV(C14,B14),4)*100</f>
-        <v>57.69</v>
-      </c>
-      <c r="O14" s="10">
-        <f>ROUND(IMDIV(G14,H14),2)</f>
-        <v>105.24</v>
-      </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
+      <c r="Q14" s="14"/>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="11">
-        <v>11</v>
-      </c>
-      <c r="C15" s="11">
-        <v>5</v>
-      </c>
-      <c r="D15" s="11">
-        <v>17</v>
-      </c>
-      <c r="E15" s="11">
-        <v>142</v>
-      </c>
-      <c r="F15" s="11">
-        <v>5</v>
-      </c>
-      <c r="G15" s="11">
-        <v>1107</v>
-      </c>
-      <c r="H15" s="11">
-        <v>29</v>
-      </c>
-      <c r="I15" s="10">
-        <f>ROUND(IMDIV(B15,H15),2)</f>
-        <v>0.38</v>
-      </c>
-      <c r="J15" s="10">
-        <f>ROUND(IMDIV(D15,H15),2)</f>
-        <v>0.59</v>
-      </c>
-      <c r="K15" s="10">
-        <f>ROUND(IMDIV(E15,H15),2)</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L15" s="10">
-        <f>ROUND(IMDIV(F15,H15),2)</f>
-        <v>0.17</v>
-      </c>
-      <c r="M15" s="10">
-        <f>ROUND(IMDIV(B15,D15),2)</f>
-        <v>0.65</v>
-      </c>
-      <c r="N15" s="10">
-        <f>ROUND(IMDIV(C15,B15),4)*100</f>
-        <v>45.45</v>
-      </c>
-      <c r="O15" s="10">
-        <f>ROUND(IMDIV(G15,H15),2)</f>
-        <v>38.17</v>
-      </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-    </row>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2449,13 +2362,12 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q15">
-    <sortCondition sortBy="cellColor" ref="A4:A15" dxfId="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q14">
+    <sortCondition ref="P1:P14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/2v2statsXL.xlsx
+++ b/2v2statsXL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\pyroject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391DC077-08BB-4FB6-B30C-5CE0575BC540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1D71E9-A27C-429B-84F3-BFBB02768715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="0" windowWidth="18165" windowHeight="20790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>player</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>EVP</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
   <dimension ref="A1:Q999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -646,31 +649,31 @@
         <v>92</v>
       </c>
       <c r="I2" s="11">
-        <f>ROUND(IMDIV(B2,H2),2)</f>
+        <f t="shared" ref="I2:I14" si="0">ROUND(IMDIV(B2,H2),2)</f>
         <v>0.98</v>
       </c>
       <c r="J2" s="11">
-        <f>ROUND(IMDIV(D2,H2),2)</f>
+        <f t="shared" ref="J2:J14" si="1">ROUND(IMDIV(D2,H2),2)</f>
         <v>0.45</v>
       </c>
       <c r="K2" s="11">
-        <f>ROUND(IMDIV(E2,H2),2)</f>
+        <f t="shared" ref="K2:K14" si="2">ROUND(IMDIV(E2,H2),2)</f>
         <v>3.99</v>
       </c>
       <c r="L2" s="11">
-        <f>ROUND(IMDIV(F2,H2),2)</f>
+        <f t="shared" ref="L2:L14" si="3">ROUND(IMDIV(F2,H2),2)</f>
         <v>0.22</v>
       </c>
       <c r="M2" s="11">
-        <f>ROUND(IMDIV(B2,D2),2)</f>
+        <f t="shared" ref="M2:M14" si="4">ROUND(IMDIV(B2,D2),2)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="N2" s="11">
-        <f>ROUND(IMDIV(C2,B2),4)*100</f>
+        <f t="shared" ref="N2:N14" si="5">ROUND(IMDIV(C2,B2),4)*100</f>
         <v>55.559999999999995</v>
       </c>
       <c r="O2" s="11">
-        <f>ROUND(IMDIV(G2,H2),2)</f>
+        <f t="shared" ref="O2:O14" si="6">ROUND(IMDIV(G2,H2),2)</f>
         <v>104.57</v>
       </c>
       <c r="P2" s="13" t="s">
@@ -706,37 +709,39 @@
         <v>92</v>
       </c>
       <c r="I3" s="11">
-        <f>ROUND(IMDIV(B3,H3),2)</f>
+        <f t="shared" si="0"/>
         <v>0.39</v>
       </c>
       <c r="J3" s="11">
-        <f>ROUND(IMDIV(D3,H3),2)</f>
+        <f t="shared" si="1"/>
         <v>0.61</v>
       </c>
       <c r="K3" s="11">
-        <f>ROUND(IMDIV(E3,H3),2)</f>
+        <f t="shared" si="2"/>
         <v>2.12</v>
       </c>
       <c r="L3" s="11">
-        <f>ROUND(IMDIV(F3,H3),2)</f>
+        <f t="shared" si="3"/>
         <v>0.23</v>
       </c>
       <c r="M3" s="11">
-        <f>ROUND(IMDIV(B3,D3),2)</f>
+        <f t="shared" si="4"/>
         <v>0.64</v>
       </c>
       <c r="N3" s="11">
-        <f>ROUND(IMDIV(C3,B3),4)*100</f>
+        <f t="shared" si="5"/>
         <v>36.11</v>
       </c>
       <c r="O3" s="11">
-        <f>ROUND(IMDIV(G3,H3),2)</f>
+        <f t="shared" si="6"/>
         <v>44.28</v>
       </c>
       <c r="P3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="11"/>
+      <c r="Q3" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -764,31 +769,31 @@
         <v>51</v>
       </c>
       <c r="I4" s="4">
-        <f>ROUND(IMDIV(B4,H4),2)</f>
+        <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
       <c r="J4" s="4">
-        <f>ROUND(IMDIV(D4,H4),2)</f>
+        <f t="shared" si="1"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="K4" s="4">
-        <f>ROUND(IMDIV(E4,H4),2)</f>
+        <f t="shared" si="2"/>
         <v>3.31</v>
       </c>
       <c r="L4" s="4">
-        <f>ROUND(IMDIV(F4,H4),2)</f>
+        <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
       <c r="M4" s="4">
-        <f>ROUND(IMDIV(B4,D4),2)</f>
+        <f t="shared" si="4"/>
         <v>1.39</v>
       </c>
       <c r="N4" s="4">
-        <f>ROUND(IMDIV(C4,B4),4)*100</f>
+        <f t="shared" si="5"/>
         <v>64.099999999999994</v>
       </c>
       <c r="O4" s="4">
-        <f>ROUND(IMDIV(G4,H4),2)</f>
+        <f t="shared" si="6"/>
         <v>85.55</v>
       </c>
       <c r="P4" s="4" t="s">
@@ -824,37 +829,39 @@
         <v>51</v>
       </c>
       <c r="I5" s="4">
-        <f>ROUND(IMDIV(B5,H5),2)</f>
+        <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
       <c r="J5" s="4">
-        <f>ROUND(IMDIV(D5,H5),2)</f>
+        <f t="shared" si="1"/>
         <v>0.65</v>
       </c>
       <c r="K5" s="4">
-        <f>ROUND(IMDIV(E5,H5),2)</f>
+        <f t="shared" si="2"/>
         <v>1.43</v>
       </c>
       <c r="L5" s="4">
-        <f>ROUND(IMDIV(F5,H5),2)</f>
+        <f t="shared" si="3"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="M5" s="4">
-        <f>ROUND(IMDIV(B5,D5),2)</f>
+        <f t="shared" si="4"/>
         <v>0.79</v>
       </c>
       <c r="N5" s="4">
-        <f>ROUND(IMDIV(C5,B5),4)*100</f>
+        <f t="shared" si="5"/>
         <v>46.150000000000006</v>
       </c>
       <c r="O5" s="4">
-        <f>ROUND(IMDIV(G5,H5),2)</f>
+        <f t="shared" si="6"/>
         <v>59.51</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" s="4"/>
+      <c r="Q5" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -882,37 +889,39 @@
         <v>35</v>
       </c>
       <c r="I6" s="5">
-        <f>ROUND(IMDIV(B6,H6),2)</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="J6" s="5">
-        <f>ROUND(IMDIV(D6,H6),2)</f>
+        <f t="shared" si="1"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="K6" s="5">
-        <f>ROUND(IMDIV(E6,H6),2)</f>
+        <f t="shared" si="2"/>
         <v>2.6</v>
       </c>
       <c r="L6" s="5">
-        <f>ROUND(IMDIV(F6,H6),2)</f>
+        <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
       <c r="M6" s="5">
-        <f>ROUND(IMDIV(B6,D6),2)</f>
+        <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
       <c r="N6" s="5">
-        <f>ROUND(IMDIV(C6,B6),4)*100</f>
+        <f t="shared" si="5"/>
         <v>60.709999999999994</v>
       </c>
       <c r="O6" s="5">
-        <f>ROUND(IMDIV(G6,H6),2)</f>
+        <f t="shared" si="6"/>
         <v>84.43</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="8"/>
+      <c r="Q6" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -940,31 +949,31 @@
         <v>95</v>
       </c>
       <c r="I7" s="2">
-        <f>ROUND(IMDIV(B7,H7),2)</f>
+        <f t="shared" si="0"/>
         <v>0.71</v>
       </c>
       <c r="J7" s="2">
-        <f>ROUND(IMDIV(D7,H7),2)</f>
+        <f t="shared" si="1"/>
         <v>0.59</v>
       </c>
       <c r="K7" s="2">
-        <f>ROUND(IMDIV(E7,H7),2)</f>
+        <f t="shared" si="2"/>
         <v>2.09</v>
       </c>
       <c r="L7" s="2">
-        <f>ROUND(IMDIV(F7,H7),2)</f>
+        <f t="shared" si="3"/>
         <v>0.16</v>
       </c>
       <c r="M7" s="2">
-        <f>ROUND(IMDIV(B7,D7),2)</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
       <c r="N7" s="2">
-        <f>ROUND(IMDIV(C7,B7),4)*100</f>
+        <f t="shared" si="5"/>
         <v>43.28</v>
       </c>
       <c r="O7" s="2">
-        <f>ROUND(IMDIV(G7,H7),2)</f>
+        <f t="shared" si="6"/>
         <v>80.459999999999994</v>
       </c>
       <c r="P7" s="2" t="s">
@@ -1000,31 +1009,31 @@
         <v>62</v>
       </c>
       <c r="I8" s="5">
-        <f>ROUND(IMDIV(B8,H8),2)</f>
+        <f t="shared" si="0"/>
         <v>0.61</v>
       </c>
       <c r="J8" s="5">
-        <f>ROUND(IMDIV(D8,H8),2)</f>
+        <f t="shared" si="1"/>
         <v>0.53</v>
       </c>
       <c r="K8" s="5">
-        <f>ROUND(IMDIV(E8,H8),2)</f>
+        <f t="shared" si="2"/>
         <v>1.48</v>
       </c>
       <c r="L8" s="5">
-        <f>ROUND(IMDIV(F8,H8),2)</f>
+        <f t="shared" si="3"/>
         <v>0.21</v>
       </c>
       <c r="M8" s="5">
-        <f>ROUND(IMDIV(B8,D8),2)</f>
+        <f t="shared" si="4"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="N8" s="5">
-        <f>ROUND(IMDIV(C8,B8),4)*100</f>
+        <f t="shared" si="5"/>
         <v>10.530000000000001</v>
       </c>
       <c r="O8" s="5">
-        <f>ROUND(IMDIV(G8,H8),2)</f>
+        <f t="shared" si="6"/>
         <v>73.37</v>
       </c>
       <c r="P8" s="5" t="s">
@@ -1060,37 +1069,39 @@
         <v>95</v>
       </c>
       <c r="I9" s="2">
-        <f>ROUND(IMDIV(B9,H9),2)</f>
+        <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
       <c r="J9" s="2">
-        <f>ROUND(IMDIV(D9,H9),2)</f>
+        <f t="shared" si="1"/>
         <v>0.64</v>
       </c>
       <c r="K9" s="2">
-        <f>ROUND(IMDIV(E9,H9),2)</f>
+        <f t="shared" si="2"/>
         <v>1.45</v>
       </c>
       <c r="L9" s="2">
-        <f>ROUND(IMDIV(F9,H9),2)</f>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="M9" s="2">
-        <f>ROUND(IMDIV(B9,D9),2)</f>
+        <f t="shared" si="4"/>
         <v>0.79</v>
       </c>
       <c r="N9" s="2">
-        <f>ROUND(IMDIV(C9,B9),4)*100</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="O9" s="2">
-        <f>ROUND(IMDIV(G9,H9),2)</f>
+        <f t="shared" si="6"/>
         <v>57.41</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1118,37 +1129,39 @@
         <v>27</v>
       </c>
       <c r="I10" s="5">
-        <f>ROUND(IMDIV(B10,H10),2)</f>
+        <f t="shared" si="0"/>
         <v>0.67</v>
       </c>
       <c r="J10" s="5">
-        <f>ROUND(IMDIV(D10,H10),2)</f>
+        <f t="shared" si="1"/>
         <v>0.59</v>
       </c>
       <c r="K10" s="5">
-        <f>ROUND(IMDIV(E10,H10),2)</f>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="L10" s="5">
-        <f>ROUND(IMDIV(F10,H10),2)</f>
+        <f t="shared" si="3"/>
         <v>0.48</v>
       </c>
       <c r="M10" s="5">
-        <f>ROUND(IMDIV(B10,D10),2)</f>
+        <f t="shared" si="4"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="N10" s="5">
-        <f>ROUND(IMDIV(C10,B10),4)*100</f>
+        <f t="shared" si="5"/>
         <v>61.11</v>
       </c>
       <c r="O10" s="5">
-        <f>ROUND(IMDIV(G10,H10),2)</f>
+        <f t="shared" si="6"/>
         <v>77.78</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1176,37 +1189,39 @@
         <v>56</v>
       </c>
       <c r="I11" s="3">
-        <f>ROUND(IMDIV(B11,H11),2)</f>
+        <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
       <c r="J11" s="3">
-        <f>ROUND(IMDIV(D11,H11),2)</f>
+        <f t="shared" si="1"/>
         <v>0.71</v>
       </c>
       <c r="K11" s="3">
-        <f>ROUND(IMDIV(E11,H11),2)</f>
+        <f t="shared" si="2"/>
         <v>2.54</v>
       </c>
       <c r="L11" s="3">
-        <f>ROUND(IMDIV(F11,H11),2)</f>
+        <f t="shared" si="3"/>
         <v>0.23</v>
       </c>
       <c r="M11" s="3">
-        <f>ROUND(IMDIV(B11,D11),2)</f>
+        <f t="shared" si="4"/>
         <v>0.88</v>
       </c>
       <c r="N11" s="3">
-        <f>ROUND(IMDIV(C11,B11),4)*100</f>
+        <f t="shared" si="5"/>
         <v>48.57</v>
       </c>
       <c r="O11" s="3">
-        <f>ROUND(IMDIV(G11,H11),2)</f>
+        <f t="shared" si="6"/>
         <v>81.55</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -1234,37 +1249,39 @@
         <v>60</v>
       </c>
       <c r="I12" s="9">
-        <f>ROUND(IMDIV(B12,H12),2)</f>
+        <f t="shared" si="0"/>
         <v>0.42</v>
       </c>
       <c r="J12" s="9">
-        <f>ROUND(IMDIV(D12,H12),2)</f>
+        <f t="shared" si="1"/>
         <v>0.78</v>
       </c>
       <c r="K12" s="9">
-        <f>ROUND(IMDIV(E12,H12),2)</f>
+        <f t="shared" si="2"/>
         <v>0.97</v>
       </c>
       <c r="L12" s="9">
-        <f>ROUND(IMDIV(F12,H12),2)</f>
+        <f t="shared" si="3"/>
         <v>0.18</v>
       </c>
       <c r="M12" s="9">
-        <f>ROUND(IMDIV(B12,D12),2)</f>
+        <f t="shared" si="4"/>
         <v>0.53</v>
       </c>
       <c r="N12" s="9">
-        <f>ROUND(IMDIV(C12,B12),4)*100</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="O12" s="9">
-        <f>ROUND(IMDIV(G12,H12),2)</f>
+        <f t="shared" si="6"/>
         <v>53.25</v>
       </c>
       <c r="P12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q12" s="9"/>
+      <c r="Q12" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -1292,37 +1309,39 @@
         <v>60</v>
       </c>
       <c r="I13" s="15">
-        <f>ROUND(IMDIV(B13,H13),2)</f>
+        <f t="shared" si="0"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="J13" s="15">
-        <f>ROUND(IMDIV(D13,H13),2)</f>
+        <f t="shared" si="1"/>
         <v>0.78</v>
       </c>
       <c r="K13" s="15">
-        <f>ROUND(IMDIV(E13,H13),2)</f>
+        <f t="shared" si="2"/>
         <v>0.77</v>
       </c>
       <c r="L13" s="15">
-        <f>ROUND(IMDIV(F13,H13),2)</f>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="M13" s="15">
-        <f>ROUND(IMDIV(B13,D13),2)</f>
+        <f t="shared" si="4"/>
         <v>0.72</v>
       </c>
       <c r="N13" s="15">
-        <f>ROUND(IMDIV(C13,B13),4)*100</f>
+        <f t="shared" si="5"/>
         <v>44.12</v>
       </c>
       <c r="O13" s="15">
-        <f>ROUND(IMDIV(G13,H13),2)</f>
+        <f t="shared" si="6"/>
         <v>72.430000000000007</v>
       </c>
       <c r="P13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Q13" s="15"/>
+      <c r="Q13" s="15" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
@@ -1350,37 +1369,39 @@
         <v>56</v>
       </c>
       <c r="I14" s="14">
-        <f>ROUND(IMDIV(B14,H14),2)</f>
+        <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
       <c r="J14" s="14">
-        <f>ROUND(IMDIV(D14,H14),2)</f>
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
       <c r="K14" s="14">
-        <f>ROUND(IMDIV(E14,H14),2)</f>
+        <f t="shared" si="2"/>
         <v>0.59</v>
       </c>
       <c r="L14" s="14">
-        <f>ROUND(IMDIV(F14,H14),2)</f>
+        <f t="shared" si="3"/>
         <v>0.36</v>
       </c>
       <c r="M14" s="14">
-        <f>ROUND(IMDIV(B14,D14),2)</f>
+        <f t="shared" si="4"/>
         <v>0.69</v>
       </c>
       <c r="N14" s="14">
-        <f>ROUND(IMDIV(C14,B14),4)*100</f>
+        <f t="shared" si="5"/>
         <v>62.960000000000008</v>
       </c>
       <c r="O14" s="14">
-        <f>ROUND(IMDIV(G14,H14),2)</f>
+        <f t="shared" si="6"/>
         <v>57.07</v>
       </c>
       <c r="P14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="Q14" s="14"/>
+      <c r="Q14" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/2v2statsXL.xlsx
+++ b/2v2statsXL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\pyroject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1D71E9-A27C-429B-84F3-BFBB02768715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAC09ED-E51F-4C79-92DA-64CA35D28756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>player</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>PadRating</t>
   </si>
 </sst>
 </file>
@@ -188,7 +191,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,6 +246,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -263,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -273,22 +282,31 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -557,42 +575,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q999"/>
+  <dimension ref="A1:R999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="15" width="8.5703125" customWidth="1"/>
     <col min="16" max="16" width="10.28515625" customWidth="1"/>
-    <col min="17" max="26" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -616,134 +636,145 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="10">
         <v>90</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>50</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>41</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
         <v>367</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="10">
         <v>20</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="10">
         <v>9620</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="10">
         <v>92</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="9">
         <f t="shared" ref="I2:I14" si="0">ROUND(IMDIV(B2,H2),2)</f>
         <v>0.98</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="9">
         <f t="shared" ref="J2:J14" si="1">ROUND(IMDIV(D2,H2),2)</f>
         <v>0.45</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="9">
         <f t="shared" ref="K2:K14" si="2">ROUND(IMDIV(E2,H2),2)</f>
         <v>3.99</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="9">
         <f t="shared" ref="L2:L14" si="3">ROUND(IMDIV(F2,H2),2)</f>
         <v>0.22</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="9">
         <f t="shared" ref="M2:M14" si="4">ROUND(IMDIV(B2,D2),2)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="9">
         <f t="shared" ref="N2:N14" si="5">ROUND(IMDIV(C2,B2),4)*100</f>
         <v>55.559999999999995</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="9">
         <f t="shared" ref="O2:O14" si="6">ROUND(IMDIV(G2,H2),2)</f>
         <v>104.57</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="9" t="s">
         <v>34</v>
       </c>
+      <c r="R2" s="17">
+        <f>(((I2-0+1.25*0)/2)+(0/3)+0.25*((0/4)+0)-(J2-0.2*0+0.5*0)+(O2/250)+(L2/20))+1</f>
+        <v>1.4692799999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>36</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>13</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>56</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>195</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>21</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>4074</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="10">
         <v>92</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="9">
         <f t="shared" si="0"/>
         <v>0.39</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="9">
         <f t="shared" si="1"/>
         <v>0.61</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="9">
         <f t="shared" si="2"/>
         <v>2.12</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="9">
         <f t="shared" si="3"/>
         <v>0.23</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="9">
         <f t="shared" si="4"/>
         <v>0.64</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="9">
         <f t="shared" si="5"/>
         <v>36.11</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="9">
         <f t="shared" si="6"/>
         <v>44.28</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="R3" s="17">
+        <f t="shared" ref="R3:R14" si="7">(((I3-0+1.25*0)/2)+(0/3)+0.25*((0/4)+0)-(J3-0.2*0+0.5*0)+(O3/250)+(L3/20))+1</f>
+        <v>0.77361999999999997</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -802,8 +833,12 @@
       <c r="Q4" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="R4" s="17">
+        <f t="shared" si="7"/>
+        <v>1.1781999999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -862,8 +897,12 @@
       <c r="Q5" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="R5" s="17">
+        <f t="shared" si="7"/>
+        <v>0.85004000000000002</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
@@ -922,248 +961,268 @@
       <c r="Q6" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="R6" s="17">
+        <f t="shared" si="7"/>
+        <v>1.1707200000000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="6">
+        <v>38</v>
+      </c>
+      <c r="C7" s="6">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6">
+        <v>33</v>
+      </c>
+      <c r="E7" s="6">
+        <v>92</v>
+      </c>
+      <c r="F7" s="6">
+        <v>13</v>
+      </c>
+      <c r="G7" s="6">
+        <v>4549</v>
+      </c>
+      <c r="H7" s="6">
+        <v>62</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.53</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="2"/>
+        <v>1.48</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="3"/>
+        <v>0.21</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="5"/>
+        <v>10.530000000000001</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="6"/>
+        <v>73.37</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" s="17">
+        <f t="shared" si="7"/>
+        <v>1.0789800000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6">
+        <v>13</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2100</v>
+      </c>
+      <c r="H8" s="6">
+        <v>27</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.67</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.59</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="3"/>
+        <v>0.48</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="5"/>
+        <v>61.11</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="6"/>
+        <v>77.78</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="17">
+        <f t="shared" si="7"/>
+        <v>1.08012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B9" s="2">
         <v>67</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C9" s="2">
         <v>29</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D9" s="2">
         <v>56</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E9" s="2">
         <v>199</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F9" s="2">
         <v>15</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G9" s="2">
         <v>7644</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H9" s="2">
         <v>95</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>0.71</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J9" s="2">
         <f t="shared" si="1"/>
         <v>0.59</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K9" s="2">
         <f t="shared" si="2"/>
         <v>2.09</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L9" s="2">
         <f t="shared" si="3"/>
         <v>0.16</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M9" s="2">
         <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N9" s="2">
         <f t="shared" si="5"/>
         <v>43.28</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O9" s="2">
         <f t="shared" si="6"/>
         <v>80.459999999999994</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="R9" s="17">
+        <f t="shared" si="7"/>
+        <v>1.09484</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="6">
-        <v>38</v>
-      </c>
-      <c r="C8" s="6">
-        <v>4</v>
-      </c>
-      <c r="D8" s="6">
-        <v>33</v>
-      </c>
-      <c r="E8" s="6">
-        <v>92</v>
-      </c>
-      <c r="F8" s="6">
-        <v>13</v>
-      </c>
-      <c r="G8" s="6">
-        <v>4549</v>
-      </c>
-      <c r="H8" s="6">
-        <v>62</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="0"/>
-        <v>0.61</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" si="1"/>
-        <v>0.53</v>
-      </c>
-      <c r="K8" s="5">
-        <f t="shared" si="2"/>
-        <v>1.48</v>
-      </c>
-      <c r="L8" s="5">
-        <f t="shared" si="3"/>
-        <v>0.21</v>
-      </c>
-      <c r="M8" s="5">
-        <f t="shared" si="4"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="N8" s="5">
-        <f t="shared" si="5"/>
-        <v>10.530000000000001</v>
-      </c>
-      <c r="O8" s="5">
-        <f t="shared" si="6"/>
-        <v>73.37</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <v>48</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>24</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>61</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="2">
         <v>138</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="2">
         <v>19</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G10" s="2">
         <v>5454</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H10" s="2">
         <v>95</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J10" s="2">
         <f t="shared" si="1"/>
         <v>0.64</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K10" s="2">
         <f t="shared" si="2"/>
         <v>1.45</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L10" s="2">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M10" s="2">
         <f t="shared" si="4"/>
         <v>0.79</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N10" s="2">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O10" s="2">
         <f t="shared" si="6"/>
         <v>57.41</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="R10" s="17">
+        <f t="shared" si="7"/>
+        <v>0.85463999999999996</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="6">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6">
-        <v>11</v>
-      </c>
-      <c r="D10" s="6">
-        <v>16</v>
-      </c>
-      <c r="E10" s="5">
-        <v>15</v>
-      </c>
-      <c r="F10" s="6">
-        <v>13</v>
-      </c>
-      <c r="G10" s="6">
-        <v>2100</v>
-      </c>
-      <c r="H10" s="6">
-        <v>27</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="0"/>
-        <v>0.67</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="1"/>
-        <v>0.59</v>
-      </c>
-      <c r="K10" s="5">
-        <f t="shared" si="2"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="L10" s="5">
-        <f t="shared" si="3"/>
-        <v>0.48</v>
-      </c>
-      <c r="M10" s="5">
-        <f t="shared" si="4"/>
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="N10" s="5">
-        <f t="shared" si="5"/>
-        <v>61.11</v>
-      </c>
-      <c r="O10" s="5">
-        <f t="shared" si="6"/>
-        <v>77.78</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -1222,185 +1281,201 @@
       <c r="Q11" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="R11" s="17">
+        <f t="shared" si="7"/>
+        <v>0.94269999999999998</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3">
+        <v>33</v>
+      </c>
+      <c r="F12" s="3">
+        <v>20</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3196</v>
+      </c>
+      <c r="H12" s="3">
+        <v>56</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.59</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="3"/>
+        <v>0.36</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="4"/>
+        <v>0.69</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="5"/>
+        <v>62.960000000000008</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="6"/>
+        <v>57.07</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" s="17">
+        <f t="shared" si="7"/>
+        <v>0.78628000000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="12">
+        <v>34</v>
+      </c>
+      <c r="C13" s="12">
+        <v>15</v>
+      </c>
+      <c r="D13" s="12">
+        <v>47</v>
+      </c>
+      <c r="E13" s="12">
+        <v>46</v>
+      </c>
+      <c r="F13" s="12">
+        <v>18</v>
+      </c>
+      <c r="G13" s="12">
+        <v>4346</v>
+      </c>
+      <c r="H13" s="12">
+        <v>60</v>
+      </c>
+      <c r="I13" s="12">
+        <f t="shared" si="0"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="1"/>
+        <v>0.78</v>
+      </c>
+      <c r="K13" s="12">
+        <f t="shared" si="2"/>
+        <v>0.77</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="M13" s="12">
+        <f t="shared" si="4"/>
+        <v>0.72</v>
+      </c>
+      <c r="N13" s="12">
+        <f t="shared" si="5"/>
+        <v>44.12</v>
+      </c>
+      <c r="O13" s="12">
+        <f t="shared" si="6"/>
+        <v>72.430000000000007</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" s="17">
+        <f t="shared" si="7"/>
+        <v>0.80972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B14" s="12">
         <v>25</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C14" s="12">
         <v>15</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D14" s="12">
         <v>47</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E14" s="12">
         <v>58</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F14" s="12">
         <v>11</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G14" s="12">
         <v>3195</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H14" s="12">
         <v>60</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I14" s="12">
         <f t="shared" si="0"/>
         <v>0.42</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J14" s="12">
         <f t="shared" si="1"/>
         <v>0.78</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K14" s="12">
         <f t="shared" si="2"/>
         <v>0.97</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L14" s="12">
         <f t="shared" si="3"/>
         <v>0.18</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M14" s="12">
         <f t="shared" si="4"/>
         <v>0.53</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N14" s="12">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O14" s="12">
         <f t="shared" si="6"/>
         <v>53.25</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="P14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="Q14" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="15">
-        <v>34</v>
-      </c>
-      <c r="C13" s="15">
-        <v>15</v>
-      </c>
-      <c r="D13" s="15">
-        <v>47</v>
-      </c>
-      <c r="E13" s="15">
-        <v>46</v>
-      </c>
-      <c r="F13" s="15">
-        <v>18</v>
-      </c>
-      <c r="G13" s="15">
-        <v>4346</v>
-      </c>
-      <c r="H13" s="15">
-        <v>60</v>
-      </c>
-      <c r="I13" s="15">
-        <f t="shared" si="0"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J13" s="15">
-        <f t="shared" si="1"/>
-        <v>0.78</v>
-      </c>
-      <c r="K13" s="15">
-        <f t="shared" si="2"/>
-        <v>0.77</v>
-      </c>
-      <c r="L13" s="15">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
-      </c>
-      <c r="M13" s="15">
-        <f t="shared" si="4"/>
-        <v>0.72</v>
-      </c>
-      <c r="N13" s="15">
-        <f t="shared" si="5"/>
-        <v>44.12</v>
-      </c>
-      <c r="O13" s="15">
-        <f t="shared" si="6"/>
-        <v>72.430000000000007</v>
-      </c>
-      <c r="P13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="14">
-        <v>27</v>
-      </c>
-      <c r="C14" s="14">
-        <v>17</v>
-      </c>
-      <c r="D14" s="14">
-        <v>39</v>
-      </c>
-      <c r="E14" s="14">
-        <v>33</v>
-      </c>
-      <c r="F14" s="14">
-        <v>20</v>
-      </c>
-      <c r="G14" s="14">
-        <v>3196</v>
-      </c>
-      <c r="H14" s="14">
-        <v>56</v>
-      </c>
-      <c r="I14" s="14">
-        <f t="shared" si="0"/>
-        <v>0.48</v>
-      </c>
-      <c r="J14" s="14">
-        <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-      <c r="K14" s="14">
-        <f t="shared" si="2"/>
-        <v>0.59</v>
-      </c>
-      <c r="L14" s="14">
-        <f t="shared" si="3"/>
-        <v>0.36</v>
-      </c>
-      <c r="M14" s="14">
-        <f t="shared" si="4"/>
-        <v>0.69</v>
-      </c>
-      <c r="N14" s="14">
-        <f t="shared" si="5"/>
-        <v>62.960000000000008</v>
-      </c>
-      <c r="O14" s="14">
-        <f t="shared" si="6"/>
-        <v>57.07</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q14" s="14" t="s">
-        <v>36</v>
+      <c r="R14" s="17">
+        <f t="shared" si="7"/>
+        <v>0.65199999999999991</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2384,11 +2459,17 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q14">
-    <sortCondition ref="P1:P14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:Q10">
+    <sortCondition sortBy="cellColor" ref="Q10" dxfId="0"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{edaa6760-dc32-42b1-9af8-b6b7dd0c31e7}" enabled="1" method="Standard" siteId="{9fdb1b0c-e154-4e66-9ecb-b70f283e1e71}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/2v2statsXL.xlsx
+++ b/2v2statsXL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\pyroject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAC09ED-E51F-4C79-92DA-64CA35D28756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1CDFD8-D33C-4FA4-923E-494DBB70C175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40605" yWindow="4770" windowWidth="21825" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>player</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>PadRating</t>
+  </si>
+  <si>
+    <t>1v2</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>MKPR</t>
+  </si>
+  <si>
+    <t>1v2PR</t>
   </si>
 </sst>
 </file>
@@ -191,7 +203,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,6 +264,36 @@
         <bgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -272,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -293,6 +335,13 @@
     <xf numFmtId="2" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -323,7 +372,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -575,22 +624,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R999"/>
+  <dimension ref="A1:V999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="15" width="8.5703125" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" customWidth="1"/>
-    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="26" width="8.5703125" customWidth="1"/>
+    <col min="1" max="19" width="8.5703125" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="30" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -601,52 +650,64 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
@@ -657,60 +718,74 @@
         <v>50</v>
       </c>
       <c r="D2" s="10">
+        <v>9</v>
+      </c>
+      <c r="E2" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10">
         <v>41</v>
       </c>
-      <c r="E2" s="10">
+      <c r="G2" s="10">
         <v>367</v>
       </c>
-      <c r="F2" s="10">
+      <c r="H2" s="10">
         <v>20</v>
       </c>
-      <c r="G2" s="10">
+      <c r="I2" s="10">
         <v>9620</v>
       </c>
-      <c r="H2" s="10">
+      <c r="J2" s="10">
         <v>92</v>
       </c>
-      <c r="I2" s="9">
-        <f t="shared" ref="I2:I14" si="0">ROUND(IMDIV(B2,H2),2)</f>
+      <c r="K2" s="9">
+        <f t="shared" ref="K2:K14" si="0">ROUND(IMDIV(B2,J2),2)</f>
         <v>0.98</v>
       </c>
-      <c r="J2" s="9">
-        <f t="shared" ref="J2:J14" si="1">ROUND(IMDIV(D2,H2),2)</f>
+      <c r="L2" s="19">
+        <f>E2/J2</f>
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="M2" s="19">
+        <f>D2/J2</f>
+        <v>9.7826086956521743E-2</v>
+      </c>
+      <c r="N2" s="9">
+        <f t="shared" ref="N2:N14" si="1">ROUND(IMDIV(F2,J2),2)</f>
         <v>0.45</v>
       </c>
-      <c r="K2" s="9">
-        <f t="shared" ref="K2:K14" si="2">ROUND(IMDIV(E2,H2),2)</f>
+      <c r="O2" s="9">
+        <f t="shared" ref="O2:O14" si="2">ROUND(IMDIV(G2,J2),2)</f>
         <v>3.99</v>
       </c>
-      <c r="L2" s="9">
-        <f t="shared" ref="L2:L14" si="3">ROUND(IMDIV(F2,H2),2)</f>
+      <c r="P2" s="9">
+        <f t="shared" ref="P2:P14" si="3">ROUND(IMDIV(H2,J2),2)</f>
         <v>0.22</v>
       </c>
-      <c r="M2" s="9">
-        <f t="shared" ref="M2:M14" si="4">ROUND(IMDIV(B2,D2),2)</f>
+      <c r="Q2" s="9">
+        <f t="shared" ref="Q2:Q14" si="4">ROUND(IMDIV(B2,F2),2)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="N2" s="9">
-        <f t="shared" ref="N2:N14" si="5">ROUND(IMDIV(C2,B2),4)*100</f>
+      <c r="R2" s="9">
+        <f t="shared" ref="R2:R14" si="5">ROUND(IMDIV(C2,B2),4)*100</f>
         <v>55.559999999999995</v>
       </c>
-      <c r="O2" s="9">
-        <f t="shared" ref="O2:O14" si="6">ROUND(IMDIV(G2,H2),2)</f>
+      <c r="S2" s="9">
+        <f t="shared" ref="S2:S14" si="6">ROUND(IMDIV(I2,J2),2)</f>
         <v>104.57</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="17">
-        <f>(((I2-0+1.25*0)/2)+(0/3)+0.25*((0/4)+0)-(J2-0.2*0+0.5*0)+(O2/250)+(L2/20))+1</f>
-        <v>1.4692799999999999</v>
+      <c r="V2" s="17">
+        <f>((K2/2)+(M2/4)+(L2/5)-(N2)+(S2/215)+(P2/20))+1</f>
+        <v>1.5661764408493428</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
@@ -721,60 +796,74 @@
         <v>13</v>
       </c>
       <c r="D3" s="10">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
         <v>56</v>
       </c>
-      <c r="E3" s="10">
+      <c r="G3" s="10">
         <v>195</v>
       </c>
-      <c r="F3" s="10">
+      <c r="H3" s="10">
         <v>21</v>
       </c>
-      <c r="G3" s="10">
+      <c r="I3" s="10">
         <v>4074</v>
       </c>
-      <c r="H3" s="10">
+      <c r="J3" s="10">
         <v>92</v>
       </c>
-      <c r="I3" s="9">
+      <c r="K3" s="9">
         <f t="shared" si="0"/>
         <v>0.39</v>
       </c>
-      <c r="J3" s="9">
+      <c r="L3" s="19">
+        <f t="shared" ref="L3:L14" si="7">E3/J3</f>
+        <v>1.0869565217391304E-2</v>
+      </c>
+      <c r="M3" s="19">
+        <f t="shared" ref="M3:M14" si="8">D3/J3</f>
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="N3" s="9">
         <f t="shared" si="1"/>
         <v>0.61</v>
       </c>
-      <c r="K3" s="9">
+      <c r="O3" s="9">
         <f t="shared" si="2"/>
         <v>2.12</v>
       </c>
-      <c r="L3" s="9">
+      <c r="P3" s="9">
         <f t="shared" si="3"/>
         <v>0.23</v>
       </c>
-      <c r="M3" s="9">
+      <c r="Q3" s="9">
         <f t="shared" si="4"/>
         <v>0.64</v>
       </c>
-      <c r="N3" s="9">
+      <c r="R3" s="9">
         <f t="shared" si="5"/>
         <v>36.11</v>
       </c>
-      <c r="O3" s="9">
+      <c r="S3" s="9">
         <f t="shared" si="6"/>
         <v>44.28</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="T3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="U3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="17">
-        <f t="shared" ref="R3:R14" si="7">(((I3-0+1.25*0)/2)+(0/3)+0.25*((0/4)+0)-(J3-0.2*0+0.5*0)+(O3/250)+(L3/20))+1</f>
-        <v>0.77361999999999997</v>
+      <c r="V3" s="17">
+        <f t="shared" ref="V3:V14" si="9">((K3/2)+(M3/4)+(L3/5)-(N3)+(S3/215)+(P3/20))+1</f>
+        <v>0.810062184024267</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -785,60 +874,74 @@
         <v>25</v>
       </c>
       <c r="D4" s="4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
         <v>28</v>
       </c>
-      <c r="E4" s="4">
+      <c r="G4" s="4">
         <v>169</v>
       </c>
-      <c r="F4" s="4">
+      <c r="H4" s="4">
         <v>6</v>
       </c>
-      <c r="G4" s="4">
+      <c r="I4" s="4">
         <v>4363</v>
       </c>
-      <c r="H4" s="4">
+      <c r="J4" s="4">
         <v>51</v>
       </c>
-      <c r="I4" s="4">
+      <c r="K4" s="4">
         <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
-      <c r="J4" s="4">
+      <c r="L4" s="20">
+        <f>E4/J4</f>
+        <v>3.9215686274509803E-2</v>
+      </c>
+      <c r="M4" s="20">
+        <f t="shared" si="8"/>
+        <v>9.8039215686274508E-2</v>
+      </c>
+      <c r="N4" s="4">
         <f t="shared" si="1"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="K4" s="4">
+      <c r="O4" s="4">
         <f t="shared" si="2"/>
         <v>3.31</v>
       </c>
-      <c r="L4" s="4">
+      <c r="P4" s="4">
         <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
-      <c r="M4" s="4">
+      <c r="Q4" s="4">
         <f t="shared" si="4"/>
         <v>1.39</v>
       </c>
-      <c r="N4" s="4">
+      <c r="R4" s="4">
         <f t="shared" si="5"/>
         <v>64.099999999999994</v>
       </c>
-      <c r="O4" s="4">
+      <c r="S4" s="4">
         <f t="shared" si="6"/>
         <v>85.55</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="17">
-        <f t="shared" si="7"/>
-        <v>1.1781999999999999</v>
+      <c r="V4" s="17">
+        <f t="shared" si="9"/>
+        <v>1.2662599179206566</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -849,60 +952,74 @@
         <v>12</v>
       </c>
       <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
         <v>33</v>
       </c>
-      <c r="E5" s="4">
+      <c r="G5" s="4">
         <v>73</v>
       </c>
-      <c r="F5" s="4">
+      <c r="H5" s="4">
         <v>7</v>
       </c>
-      <c r="G5" s="4">
+      <c r="I5" s="4">
         <v>3035</v>
       </c>
-      <c r="H5" s="4">
+      <c r="J5" s="4">
         <v>51</v>
       </c>
-      <c r="I5" s="4">
+      <c r="K5" s="4">
         <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
-      <c r="J5" s="4">
+      <c r="L5" s="20">
+        <f t="shared" si="7"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="M5" s="20">
+        <f t="shared" si="8"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="N5" s="4">
         <f t="shared" si="1"/>
         <v>0.65</v>
       </c>
-      <c r="K5" s="4">
+      <c r="O5" s="4">
         <f t="shared" si="2"/>
         <v>1.43</v>
       </c>
-      <c r="L5" s="4">
+      <c r="P5" s="4">
         <f t="shared" si="3"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="M5" s="4">
+      <c r="Q5" s="4">
         <f t="shared" si="4"/>
         <v>0.79</v>
       </c>
-      <c r="N5" s="4">
+      <c r="R5" s="4">
         <f t="shared" si="5"/>
         <v>46.150000000000006</v>
       </c>
-      <c r="O5" s="4">
+      <c r="S5" s="4">
         <f t="shared" si="6"/>
         <v>59.51</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="R5" s="17">
-        <f t="shared" si="7"/>
-        <v>0.85004000000000002</v>
+      <c r="V5" s="17">
+        <f t="shared" si="9"/>
+        <v>0.89761422708618332</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
@@ -913,60 +1030,74 @@
         <v>17</v>
       </c>
       <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
         <v>20</v>
       </c>
-      <c r="E6" s="8">
+      <c r="G6" s="8">
         <v>91</v>
       </c>
-      <c r="F6" s="8">
+      <c r="H6" s="8">
         <v>2</v>
       </c>
-      <c r="G6" s="8">
+      <c r="I6" s="8">
         <v>2955</v>
       </c>
-      <c r="H6" s="8">
+      <c r="J6" s="8">
         <v>35</v>
       </c>
-      <c r="I6" s="5">
+      <c r="K6" s="5">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="J6" s="5">
+      <c r="L6" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
         <f t="shared" si="1"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="K6" s="5">
+      <c r="O6" s="5">
         <f t="shared" si="2"/>
         <v>2.6</v>
       </c>
-      <c r="L6" s="5">
+      <c r="P6" s="5">
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
-      <c r="M6" s="5">
+      <c r="Q6" s="5">
         <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
-      <c r="N6" s="5">
+      <c r="R6" s="5">
         <f t="shared" si="5"/>
         <v>60.709999999999994</v>
       </c>
-      <c r="O6" s="5">
+      <c r="S6" s="5">
         <f t="shared" si="6"/>
         <v>84.43</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="T6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="U6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="17">
-        <f t="shared" si="7"/>
-        <v>1.1707200000000002</v>
+      <c r="V6" s="17">
+        <f t="shared" si="9"/>
+        <v>1.2256976744186048</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
@@ -977,60 +1108,74 @@
         <v>4</v>
       </c>
       <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
         <v>33</v>
       </c>
-      <c r="E7" s="6">
+      <c r="G7" s="6">
         <v>92</v>
       </c>
-      <c r="F7" s="6">
+      <c r="H7" s="6">
         <v>13</v>
       </c>
-      <c r="G7" s="6">
+      <c r="I7" s="6">
         <v>4549</v>
       </c>
-      <c r="H7" s="6">
+      <c r="J7" s="6">
         <v>62</v>
       </c>
-      <c r="I7" s="5">
+      <c r="K7" s="5">
         <f t="shared" si="0"/>
         <v>0.61</v>
       </c>
-      <c r="J7" s="5">
+      <c r="L7" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="21">
+        <f t="shared" si="8"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="N7" s="5">
         <f t="shared" si="1"/>
         <v>0.53</v>
       </c>
-      <c r="K7" s="5">
+      <c r="O7" s="5">
         <f t="shared" si="2"/>
         <v>1.48</v>
       </c>
-      <c r="L7" s="5">
+      <c r="P7" s="5">
         <f t="shared" si="3"/>
         <v>0.21</v>
       </c>
-      <c r="M7" s="5">
+      <c r="Q7" s="5">
         <f t="shared" si="4"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="N7" s="5">
+      <c r="R7" s="5">
         <f t="shared" si="5"/>
         <v>10.530000000000001</v>
       </c>
-      <c r="O7" s="5">
+      <c r="S7" s="5">
         <f t="shared" si="6"/>
         <v>73.37</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="T7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="U7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="17">
-        <f t="shared" si="7"/>
-        <v>1.0789800000000001</v>
+      <c r="V7" s="17">
+        <f t="shared" si="9"/>
+        <v>1.1307880720180046</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -1041,60 +1186,74 @@
         <v>11</v>
       </c>
       <c r="D8" s="6">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6">
         <v>16</v>
       </c>
-      <c r="E8" s="5">
+      <c r="G8" s="5">
         <v>15</v>
       </c>
-      <c r="F8" s="6">
+      <c r="H8" s="6">
         <v>13</v>
       </c>
-      <c r="G8" s="6">
+      <c r="I8" s="6">
         <v>2100</v>
       </c>
-      <c r="H8" s="6">
+      <c r="J8" s="6">
         <v>27</v>
       </c>
-      <c r="I8" s="5">
+      <c r="K8" s="5">
         <f t="shared" si="0"/>
         <v>0.67</v>
       </c>
-      <c r="J8" s="5">
+      <c r="L8" s="21">
+        <f t="shared" si="7"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="M8" s="21">
+        <f t="shared" si="8"/>
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="N8" s="5">
         <f t="shared" si="1"/>
         <v>0.59</v>
       </c>
-      <c r="K8" s="5">
+      <c r="O8" s="5">
         <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="L8" s="5">
+      <c r="P8" s="5">
         <f t="shared" si="3"/>
         <v>0.48</v>
       </c>
-      <c r="M8" s="5">
+      <c r="Q8" s="5">
         <f t="shared" si="4"/>
         <v>1.1299999999999999</v>
       </c>
-      <c r="N8" s="5">
+      <c r="R8" s="5">
         <f t="shared" si="5"/>
         <v>61.11</v>
       </c>
-      <c r="O8" s="5">
+      <c r="S8" s="5">
         <f t="shared" si="6"/>
         <v>77.78</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="T8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="U8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="17">
-        <f t="shared" si="7"/>
-        <v>1.08012</v>
+      <c r="V8" s="17">
+        <f t="shared" si="9"/>
+        <v>1.1900267011197243</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1105,60 +1264,74 @@
         <v>29</v>
       </c>
       <c r="D9" s="2">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2">
         <v>56</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G9" s="2">
         <v>199</v>
       </c>
-      <c r="F9" s="2">
+      <c r="H9" s="2">
         <v>15</v>
       </c>
-      <c r="G9" s="2">
+      <c r="I9" s="2">
         <v>7644</v>
       </c>
-      <c r="H9" s="2">
+      <c r="J9" s="2">
         <v>95</v>
       </c>
-      <c r="I9" s="2">
+      <c r="K9" s="2">
         <f t="shared" si="0"/>
         <v>0.71</v>
       </c>
-      <c r="J9" s="2">
+      <c r="L9" s="22">
+        <f t="shared" si="7"/>
+        <v>4.2105263157894736E-2</v>
+      </c>
+      <c r="M9" s="22">
+        <f t="shared" si="8"/>
+        <v>9.4736842105263161E-2</v>
+      </c>
+      <c r="N9" s="2">
         <f t="shared" si="1"/>
         <v>0.59</v>
       </c>
-      <c r="K9" s="2">
+      <c r="O9" s="2">
         <f t="shared" si="2"/>
         <v>2.09</v>
       </c>
-      <c r="L9" s="2">
+      <c r="P9" s="2">
         <f t="shared" si="3"/>
         <v>0.16</v>
       </c>
-      <c r="M9" s="2">
+      <c r="Q9" s="2">
         <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
-      <c r="N9" s="2">
+      <c r="R9" s="2">
         <f t="shared" si="5"/>
         <v>43.28</v>
       </c>
-      <c r="O9" s="2">
+      <c r="S9" s="2">
         <f t="shared" si="6"/>
         <v>80.459999999999994</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R9" s="17">
-        <f t="shared" si="7"/>
-        <v>1.09484</v>
+      <c r="V9" s="17">
+        <f t="shared" si="9"/>
+        <v>1.1793378212974297</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1169,60 +1342,74 @@
         <v>24</v>
       </c>
       <c r="D10" s="2">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
         <v>61</v>
       </c>
-      <c r="E10" s="2">
+      <c r="G10" s="2">
         <v>138</v>
       </c>
-      <c r="F10" s="2">
+      <c r="H10" s="2">
         <v>19</v>
       </c>
-      <c r="G10" s="2">
+      <c r="I10" s="2">
         <v>5454</v>
       </c>
-      <c r="H10" s="2">
+      <c r="J10" s="2">
         <v>95</v>
       </c>
-      <c r="I10" s="2">
+      <c r="K10" s="2">
         <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
-      <c r="J10" s="2">
+      <c r="L10" s="22">
+        <f t="shared" si="7"/>
+        <v>1.0526315789473684E-2</v>
+      </c>
+      <c r="M10" s="22">
+        <f t="shared" si="8"/>
+        <v>7.3684210526315783E-2</v>
+      </c>
+      <c r="N10" s="2">
         <f t="shared" si="1"/>
         <v>0.64</v>
       </c>
-      <c r="K10" s="2">
+      <c r="O10" s="2">
         <f t="shared" si="2"/>
         <v>1.45</v>
       </c>
-      <c r="L10" s="2">
+      <c r="P10" s="2">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="M10" s="2">
+      <c r="Q10" s="2">
         <f t="shared" si="4"/>
         <v>0.79</v>
       </c>
-      <c r="N10" s="2">
+      <c r="R10" s="2">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O10" s="2">
+      <c r="S10" s="2">
         <f t="shared" si="6"/>
         <v>57.41</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="U10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R10" s="17">
-        <f t="shared" si="7"/>
-        <v>0.85463999999999996</v>
+      <c r="V10" s="17">
+        <f t="shared" si="9"/>
+        <v>0.91254957160342709</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -1233,60 +1420,74 @@
         <v>17</v>
       </c>
       <c r="D11" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
         <v>40</v>
       </c>
-      <c r="E11" s="3">
+      <c r="G11" s="3">
         <v>142</v>
       </c>
-      <c r="F11" s="3">
+      <c r="H11" s="3">
         <v>13</v>
       </c>
-      <c r="G11" s="3">
+      <c r="I11" s="3">
         <v>4567</v>
       </c>
-      <c r="H11" s="3">
+      <c r="J11" s="3">
         <v>56</v>
       </c>
-      <c r="I11" s="3">
+      <c r="K11" s="3">
         <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
-      <c r="J11" s="3">
+      <c r="L11" s="23">
+        <f t="shared" si="7"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="M11" s="23">
+        <f t="shared" si="8"/>
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="N11" s="3">
         <f t="shared" si="1"/>
         <v>0.71</v>
       </c>
-      <c r="K11" s="3">
+      <c r="O11" s="3">
         <f t="shared" si="2"/>
         <v>2.54</v>
       </c>
-      <c r="L11" s="3">
+      <c r="P11" s="3">
         <f t="shared" si="3"/>
         <v>0.23</v>
       </c>
-      <c r="M11" s="3">
+      <c r="Q11" s="3">
         <f t="shared" si="4"/>
         <v>0.88</v>
       </c>
-      <c r="N11" s="3">
+      <c r="R11" s="3">
         <f t="shared" si="5"/>
         <v>48.57</v>
       </c>
-      <c r="O11" s="3">
+      <c r="S11" s="3">
         <f t="shared" si="6"/>
         <v>81.55</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="T11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="17">
-        <f t="shared" si="7"/>
-        <v>0.94269999999999998</v>
+      <c r="V11" s="17">
+        <f t="shared" si="9"/>
+        <v>1.043123754152824</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1297,60 +1498,74 @@
         <v>17</v>
       </c>
       <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
         <v>39</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>33</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>20</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>3196</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>56</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="23">
+        <f t="shared" si="7"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="M12" s="23">
+        <f t="shared" si="8"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="N12" s="3">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="K12" s="3">
+      <c r="O12" s="3">
         <f t="shared" si="2"/>
         <v>0.59</v>
       </c>
-      <c r="L12" s="3">
+      <c r="P12" s="3">
         <f t="shared" si="3"/>
         <v>0.36</v>
       </c>
-      <c r="M12" s="3">
+      <c r="Q12" s="3">
         <f t="shared" si="4"/>
         <v>0.69</v>
       </c>
-      <c r="N12" s="3">
+      <c r="R12" s="3">
         <f t="shared" si="5"/>
         <v>62.960000000000008</v>
       </c>
-      <c r="O12" s="3">
+      <c r="S12" s="3">
         <f t="shared" si="6"/>
         <v>57.07</v>
       </c>
-      <c r="P12" s="16" t="s">
+      <c r="T12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R12" s="17">
-        <f t="shared" si="7"/>
-        <v>0.78628000000000009</v>
+      <c r="V12" s="17">
+        <f t="shared" si="9"/>
+        <v>0.84487043189368771</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
@@ -1360,61 +1575,75 @@
       <c r="C13" s="12">
         <v>15</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="18">
+        <v>2</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12">
         <v>47</v>
       </c>
-      <c r="E13" s="12">
+      <c r="G13" s="12">
         <v>46</v>
       </c>
-      <c r="F13" s="12">
+      <c r="H13" s="12">
         <v>18</v>
       </c>
-      <c r="G13" s="12">
+      <c r="I13" s="12">
         <v>4346</v>
       </c>
-      <c r="H13" s="12">
+      <c r="J13" s="12">
         <v>60</v>
       </c>
-      <c r="I13" s="12">
+      <c r="K13" s="12">
         <f t="shared" si="0"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="J13" s="12">
+      <c r="L13" s="24">
+        <f t="shared" si="7"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="M13" s="24">
+        <f t="shared" si="8"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="N13" s="12">
         <f t="shared" si="1"/>
         <v>0.78</v>
       </c>
-      <c r="K13" s="12">
+      <c r="O13" s="12">
         <f t="shared" si="2"/>
         <v>0.77</v>
       </c>
-      <c r="L13" s="12">
+      <c r="P13" s="12">
         <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
-      <c r="M13" s="12">
+      <c r="Q13" s="12">
         <f t="shared" si="4"/>
         <v>0.72</v>
       </c>
-      <c r="N13" s="12">
+      <c r="R13" s="12">
         <f t="shared" si="5"/>
         <v>44.12</v>
       </c>
-      <c r="O13" s="12">
+      <c r="S13" s="12">
         <f t="shared" si="6"/>
         <v>72.430000000000007</v>
       </c>
-      <c r="P13" s="13" t="s">
+      <c r="T13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="U13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="17">
-        <f t="shared" si="7"/>
-        <v>0.80972</v>
+      <c r="V13" s="17">
+        <f t="shared" si="9"/>
+        <v>0.86855038759689929</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
@@ -1424,58 +1653,72 @@
       <c r="C14" s="12">
         <v>15</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="18">
+        <v>3</v>
+      </c>
+      <c r="E14" s="18">
+        <v>2</v>
+      </c>
+      <c r="F14" s="12">
         <v>47</v>
       </c>
-      <c r="E14" s="12">
+      <c r="G14" s="12">
         <v>58</v>
       </c>
-      <c r="F14" s="12">
+      <c r="H14" s="12">
         <v>11</v>
       </c>
-      <c r="G14" s="12">
+      <c r="I14" s="12">
         <v>3195</v>
       </c>
-      <c r="H14" s="12">
+      <c r="J14" s="12">
         <v>60</v>
       </c>
-      <c r="I14" s="12">
+      <c r="K14" s="12">
         <f t="shared" si="0"/>
         <v>0.42</v>
       </c>
-      <c r="J14" s="12">
+      <c r="L14" s="24">
+        <f t="shared" si="7"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="M14" s="24">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="N14" s="12">
         <f t="shared" si="1"/>
         <v>0.78</v>
       </c>
-      <c r="K14" s="12">
+      <c r="O14" s="12">
         <f t="shared" si="2"/>
         <v>0.97</v>
       </c>
-      <c r="L14" s="12">
+      <c r="P14" s="12">
         <f t="shared" si="3"/>
         <v>0.18</v>
       </c>
-      <c r="M14" s="12">
+      <c r="Q14" s="12">
         <f t="shared" si="4"/>
         <v>0.53</v>
       </c>
-      <c r="N14" s="12">
+      <c r="R14" s="12">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="O14" s="12">
+      <c r="S14" s="12">
         <f t="shared" si="6"/>
         <v>53.25</v>
       </c>
-      <c r="P14" s="13" t="s">
+      <c r="T14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Q14" s="12" t="s">
+      <c r="U14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R14" s="17">
-        <f t="shared" si="7"/>
-        <v>0.65199999999999991</v>
+      <c r="V14" s="17">
+        <f t="shared" si="9"/>
+        <v>0.70584108527131773</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2459,8 +2702,8 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:Q10">
-    <sortCondition sortBy="cellColor" ref="Q10" dxfId="0"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:U10">
+    <sortCondition sortBy="cellColor" ref="U10" dxfId="0"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/2v2statsXL.xlsx
+++ b/2v2statsXL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\pyroject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1CDFD8-D33C-4FA4-923E-494DBB70C175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57809386-E0CC-42F8-BF2D-DE7B74124A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40605" yWindow="4770" windowWidth="21825" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8400" yWindow="5280" windowWidth="23235" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,48 +89,27 @@
     <t>Awards</t>
   </si>
   <si>
-    <t>Dom</t>
-  </si>
-  <si>
     <t>Dank</t>
   </si>
   <si>
     <t>Hendo</t>
   </si>
   <si>
-    <t>Pete</t>
-  </si>
-  <si>
     <t>Andy</t>
   </si>
   <si>
     <t>Swny</t>
   </si>
   <si>
-    <t>Ethan</t>
-  </si>
-  <si>
-    <t>Joey</t>
-  </si>
-  <si>
     <t>Dmah</t>
   </si>
   <si>
-    <t>SamP</t>
-  </si>
-  <si>
-    <t>Caffey</t>
-  </si>
-  <si>
     <t>Danzo</t>
   </si>
   <si>
     <t>5th-6th</t>
   </si>
   <si>
-    <t>Steve</t>
-  </si>
-  <si>
     <t>2nd</t>
   </si>
   <si>
@@ -162,13 +141,34 @@
   </si>
   <si>
     <t>1v2PR</t>
+  </si>
+  <si>
+    <t>Joebro</t>
+  </si>
+  <si>
+    <t>MaggotEatr</t>
+  </si>
+  <si>
+    <t>Sweaty</t>
+  </si>
+  <si>
+    <t>ULTRA BEAST</t>
+  </si>
+  <si>
+    <t>HyperDonk</t>
+  </si>
+  <si>
+    <t>dverad74</t>
+  </si>
+  <si>
+    <t>Pater854321</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,22 +179,33 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -314,34 +325,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,12 +639,13 @@
   <dimension ref="A1:V999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="19" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="19" width="8.5703125" customWidth="1"/>
     <col min="20" max="20" width="10.28515625" customWidth="1"/>
     <col min="21" max="21" width="8.5703125" customWidth="1"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
@@ -650,10 +663,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>3</v>
@@ -674,10 +687,10 @@
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -704,12 +717,12 @@
         <v>16</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B2" s="10">
         <v>90</v>
@@ -775,10 +788,10 @@
         <v>104.57</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="V2" s="17">
         <f>((K2/2)+(M2/4)+(L2/5)-(N2)+(S2/215)+(P2/20))+1</f>
@@ -787,7 +800,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" s="10">
         <v>36</v>
@@ -853,10 +866,10 @@
         <v>44.28</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="V3" s="17">
         <f t="shared" ref="V3:V14" si="9">((K3/2)+(M3/4)+(L3/5)-(N3)+(S3/215)+(P3/20))+1</f>
@@ -865,7 +878,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4">
         <v>39</v>
@@ -931,10 +944,10 @@
         <v>85.55</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="V4" s="17">
         <f t="shared" si="9"/>
@@ -943,7 +956,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4">
         <v>26</v>
@@ -1009,10 +1022,10 @@
         <v>59.51</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="V5" s="17">
         <f t="shared" si="9"/>
@@ -1020,8 +1033,8 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>30</v>
+      <c r="A6" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="B6" s="8">
         <v>28</v>
@@ -1087,10 +1100,10 @@
         <v>84.43</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="V6" s="17">
         <f t="shared" si="9"/>
@@ -1099,7 +1112,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B7" s="6">
         <v>38</v>
@@ -1165,10 +1178,10 @@
         <v>73.37</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="V7" s="17">
         <f t="shared" si="9"/>
@@ -1177,7 +1190,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6">
         <v>18</v>
@@ -1243,10 +1256,10 @@
         <v>77.78</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="V8" s="17">
         <f t="shared" si="9"/>
@@ -1255,7 +1268,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2">
         <v>67</v>
@@ -1321,10 +1334,10 @@
         <v>80.459999999999994</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="V9" s="17">
         <f t="shared" si="9"/>
@@ -1333,7 +1346,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2">
         <v>48</v>
@@ -1399,10 +1412,10 @@
         <v>57.41</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="V10" s="17">
         <f t="shared" si="9"/>
@@ -1411,7 +1424,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3">
         <v>35</v>
@@ -1477,10 +1490,10 @@
         <v>81.55</v>
       </c>
       <c r="T11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="U11" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="V11" s="17">
         <f t="shared" si="9"/>
@@ -1489,7 +1502,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3">
         <v>27</v>
@@ -1555,10 +1568,10 @@
         <v>57.07</v>
       </c>
       <c r="T12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="U12" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="V12" s="17">
         <f t="shared" si="9"/>
@@ -1567,7 +1580,7 @@
     </row>
     <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B13" s="12">
         <v>34</v>
@@ -1633,10 +1646,10 @@
         <v>72.430000000000007</v>
       </c>
       <c r="T13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U13" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="V13" s="17">
         <f t="shared" si="9"/>
@@ -1645,7 +1658,7 @@
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="12">
         <v>25</v>
@@ -1711,10 +1724,10 @@
         <v>53.25</v>
       </c>
       <c r="T14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U14" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="U14" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="V14" s="17">
         <f t="shared" si="9"/>
